--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1305995.883106145</v>
+        <v>1300379.322517506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9808165.762114896</v>
+        <v>9808165.762114892</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5827354.347920545</v>
+        <v>5827354.347920544</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>191.8208754515551</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>347.6472557445164</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="H11" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.044134827276315</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>75.97147101074981</v>
       </c>
       <c r="I12" t="n">
-        <v>8.099864593737081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U12" t="n">
         <v>207.8845624928813</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>183.1468827469463</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>95.5851361855604</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H13" t="n">
         <v>145.0922268306807</v>
@@ -1578,7 +1578,7 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>89.21246465133389</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.9177093745617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F14" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.7823899925551</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>315.1692174007694</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -1703,10 +1703,10 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H15" t="n">
-        <v>75.97147101074981</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.099864593737081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8845624928813</v>
+        <v>200.6239115210969</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>16.88852815838178</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.80399129985916</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>114.2091858968264</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>62.15117047355724</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="D17" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>347.6472557445165</v>
+        <v>243.830119859807</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>7.482505787846275</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.97147101074981</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U18" t="n">
-        <v>112.5417260761107</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -1991,7 +1991,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>95.89323982763887</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>76.16887358567131</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I19" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>306.2077028597701</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.304563163578</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>347.6472557445164</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
     </row>
     <row r="21">
@@ -2168,19 +2168,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.39939612876378</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H21" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>147.6841013275546</v>
       </c>
       <c r="U21" t="n">
         <v>207.8845624928813</v>
@@ -2222,13 +2222,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,13 +2241,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>31.53469334363233</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>232.4515628060284</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>233.7138277241129</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>406.8166861751919</v>
       </c>
       <c r="H23" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>255.889598463244</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.4924975852298</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
@@ -2411,10 +2411,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>144.9670543220393</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>145.055105945639</v>
       </c>
       <c r="E25" t="n">
-        <v>147.904291060658</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>70.95459285933663</v>
       </c>
       <c r="G26" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>211.5718775168518</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>181.8953676591846</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>64.48560258954819</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>207.8845624928813</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>136.698219003457</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2718,22 +2718,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S28" t="n">
-        <v>89.94651258762862</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>42.45268766936199</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.122825077931004</v>
+        <v>374.1319577382018</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>114.3868274082149</v>
       </c>
       <c r="T29" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.5099306917279</v>
+        <v>149.1976498580002</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
@@ -2885,7 +2885,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T30" t="n">
         <v>170.4382740666146</v>
@@ -2952,19 +2952,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>81.85358392030911</v>
       </c>
       <c r="F31" t="n">
-        <v>83.30001276851517</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>183.4770235079133</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5302226215153</v>
@@ -3015,7 +3015,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T32" t="n">
         <v>211.5718775168518</v>
@@ -3088,13 +3088,13 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>158.4136200559612</v>
+        <v>90.8991304605036</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>88.32740974554314</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -3125,7 +3125,7 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H33" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>8.099864593737074</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>76.28528090163688</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>170.4382740666146</v>
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3201,13 +3201,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5781910131661</v>
+        <v>15.4299563048966</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9365163084432</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>347.6472557445165</v>
-      </c>
-      <c r="E35" t="n">
-        <v>347.6472557445165</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>347.6472557445165</v>
       </c>
       <c r="H35" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.044134827276544</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>140.2393965015034</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.7146220873765</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>49.60996914814746</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3444,7 +3444,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S37" t="n">
-        <v>62.99848237799738</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>13.49696038229474</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>114.3868274082149</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5718775168518</v>
+        <v>149.2009110425032</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>336.8577682202196</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>8.099864593737074</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>92.03984806306153</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>59.00825224788319</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.18327050752272</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1176658249033</v>
+        <v>198.5468555024588</v>
       </c>
       <c r="U40" t="n">
         <v>282.5302226215153</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>94.63582534291844</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>149.2009110425028</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>84.7882572125237</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H42" t="n">
         <v>75.9714710107498</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>9.798538028745995</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>61.94541287653593</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.30567213546199</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5302226215153</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.6472557445165</v>
+        <v>334.7599769821904</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>62.15117047355722</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6743889408517</v>
+        <v>110.8204993354209</v>
       </c>
       <c r="H45" t="n">
         <v>75.9714710107498</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U45" t="n">
         <v>207.8845624928813</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.5090081744749</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.0922268306807</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T46" t="n">
-        <v>66.738730094373</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>74.43200924078323</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>688.271334605305</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="C11" t="n">
-        <v>337.1124904189248</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="D11" t="n">
-        <v>337.1124904189248</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="E11" t="n">
-        <v>337.1124904189248</v>
+        <v>730.1294688323217</v>
       </c>
       <c r="F11" t="n">
-        <v>337.1124904189248</v>
+        <v>378.9706246459415</v>
       </c>
       <c r="G11" t="n">
-        <v>337.1124904189248</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="H11" t="n">
-        <v>35.93716917398183</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="I11" t="n">
         <v>27.81178045956131</v>
       </c>
       <c r="J11" t="n">
-        <v>97.37723928323612</v>
+        <v>97.37723928323635</v>
       </c>
       <c r="K11" t="n">
-        <v>234.6178659349239</v>
+        <v>234.6178659349241</v>
       </c>
       <c r="L11" t="n">
-        <v>428.8631441503472</v>
+        <v>428.8631441503475</v>
       </c>
       <c r="M11" t="n">
-        <v>665.5835775618959</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N11" t="n">
-        <v>909.1333705158786</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O11" t="n">
         <v>1130.442613932449</v>
@@ -5068,25 +5068,25 @@
         <v>1390.589022978065</v>
       </c>
       <c r="S11" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T11" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U11" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V11" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W11" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="X11" t="n">
-        <v>1039.430178791685</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="Y11" t="n">
-        <v>688.271334605305</v>
+        <v>1275.046773070778</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>518.6960619353881</v>
+        <v>379.6366766231553</v>
       </c>
       <c r="C12" t="n">
-        <v>368.0418314954803</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="D12" t="n">
-        <v>368.0418314954803</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="E12" t="n">
-        <v>231.595340606368</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="F12" t="n">
-        <v>231.595340606368</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7323214741945</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H12" t="n">
-        <v>35.99346186737654</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="I12" t="n">
         <v>27.81178045956131</v>
       </c>
       <c r="J12" t="n">
-        <v>57.01289064179394</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K12" t="n">
-        <v>157.7228750988293</v>
+        <v>352.4578700785567</v>
       </c>
       <c r="L12" t="n">
-        <v>323.7593483045476</v>
+        <v>517.9845243159086</v>
       </c>
       <c r="M12" t="n">
-        <v>529.5031107236179</v>
+        <v>723.7282867349788</v>
       </c>
       <c r="N12" t="n">
-        <v>750.0579175194846</v>
+        <v>944.2830935308455</v>
       </c>
       <c r="O12" t="n">
-        <v>937.3796099795372</v>
+        <v>1131.604785990898</v>
       </c>
       <c r="P12" t="n">
-        <v>1281.550393166609</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q12" t="n">
-        <v>1341.202308725334</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="R12" t="n">
         <v>1390.589022978065</v>
@@ -5150,22 +5150,22 @@
         <v>1277.888358601177</v>
       </c>
       <c r="T12" t="n">
-        <v>1277.888358601177</v>
+        <v>1105.728485806617</v>
       </c>
       <c r="U12" t="n">
-        <v>1067.903952042711</v>
+        <v>895.7440792481511</v>
       </c>
       <c r="V12" t="n">
-        <v>845.3639504137784</v>
+        <v>710.7472279886094</v>
       </c>
       <c r="W12" t="n">
-        <v>615.2467045470653</v>
+        <v>710.7472279886094</v>
       </c>
       <c r="X12" t="n">
-        <v>615.2467045470653</v>
+        <v>710.7472279886094</v>
       </c>
       <c r="Y12" t="n">
-        <v>518.6960619353881</v>
+        <v>531.4330110641166</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.9234752369974</v>
+        <v>770.3792911641053</v>
       </c>
       <c r="C13" t="n">
-        <v>432.9234752369974</v>
+        <v>600.1741732300945</v>
       </c>
       <c r="D13" t="n">
-        <v>277.2903621395122</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="E13" t="n">
-        <v>277.2903621395122</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="F13" t="n">
-        <v>277.2903621395122</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="G13" t="n">
         <v>277.2903621395122</v>
@@ -5199,19 +5199,19 @@
         <v>27.81178045956131</v>
       </c>
       <c r="J13" t="n">
-        <v>27.81178045956131</v>
+        <v>67.56364899248426</v>
       </c>
       <c r="K13" t="n">
-        <v>59.04368533781657</v>
+        <v>263.6506266134209</v>
       </c>
       <c r="L13" t="n">
-        <v>118.4485393199171</v>
+        <v>573.981409656298</v>
       </c>
       <c r="M13" t="n">
-        <v>458.8908329366697</v>
+        <v>914.4237032730505</v>
       </c>
       <c r="N13" t="n">
-        <v>792.5658227808348</v>
+        <v>982.7434112226288</v>
       </c>
       <c r="O13" t="n">
         <v>1066.008786766878</v>
@@ -5226,25 +5226,25 @@
         <v>1311.802563776864</v>
       </c>
       <c r="S13" t="n">
-        <v>1311.802563776864</v>
+        <v>1126.472237001194</v>
       </c>
       <c r="T13" t="n">
-        <v>1311.802563776864</v>
+        <v>1126.472237001194</v>
       </c>
       <c r="U13" t="n">
-        <v>1311.802563776864</v>
+        <v>1126.472237001194</v>
       </c>
       <c r="V13" t="n">
-        <v>1045.823218597689</v>
+        <v>860.4928918220184</v>
       </c>
       <c r="W13" t="n">
-        <v>762.4928165288661</v>
+        <v>770.3792911641053</v>
       </c>
       <c r="X13" t="n">
-        <v>762.4928165288661</v>
+        <v>770.3792911641053</v>
       </c>
       <c r="Y13" t="n">
-        <v>618.1314939282987</v>
+        <v>770.3792911641053</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.9706246459415</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="C14" t="n">
-        <v>378.9706246459415</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="D14" t="n">
-        <v>378.9706246459415</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="E14" t="n">
-        <v>378.9706246459415</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F14" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G14" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H14" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I14" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J14" t="n">
         <v>97.37723928323612</v>
@@ -5284,46 +5284,46 @@
         <v>234.6178659349239</v>
       </c>
       <c r="L14" t="n">
-        <v>428.8631441503472</v>
+        <v>428.8631441503471</v>
       </c>
       <c r="M14" t="n">
-        <v>665.5835775618959</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N14" t="n">
-        <v>909.1333705158786</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O14" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P14" t="n">
         <v>1296.899282459866</v>
       </c>
       <c r="Q14" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R14" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S14" t="n">
-        <v>1390.589022978065</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T14" t="n">
-        <v>1390.589022978065</v>
+        <v>1072.236278128803</v>
       </c>
       <c r="U14" t="n">
-        <v>1390.589022978065</v>
+        <v>1072.236278128803</v>
       </c>
       <c r="V14" t="n">
-        <v>1048.482213681584</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="W14" t="n">
-        <v>730.1294688323217</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="X14" t="n">
-        <v>378.9706246459415</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="Y14" t="n">
-        <v>378.9706246459415</v>
+        <v>378.9706246459416</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>643.1278680522563</v>
+        <v>271.106605708603</v>
       </c>
       <c r="C15" t="n">
-        <v>492.4736376123485</v>
+        <v>271.106605708603</v>
       </c>
       <c r="D15" t="n">
-        <v>492.4736376123485</v>
+        <v>271.106605708603</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0271467232362</v>
+        <v>271.106605708603</v>
       </c>
       <c r="F15" t="n">
-        <v>231.595340606368</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7323214741945</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H15" t="n">
-        <v>35.99346186737654</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I15" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J15" t="n">
         <v>251.7478856215213</v>
       </c>
       <c r="K15" t="n">
-        <v>352.4578700785567</v>
+        <v>414.0145117938099</v>
       </c>
       <c r="L15" t="n">
-        <v>517.9845243159086</v>
+        <v>579.541166031162</v>
       </c>
       <c r="M15" t="n">
-        <v>723.7282867349788</v>
+        <v>785.2849284502323</v>
       </c>
       <c r="N15" t="n">
-        <v>944.2830935308456</v>
+        <v>1005.839735246099</v>
       </c>
       <c r="O15" t="n">
-        <v>1131.604785990898</v>
+        <v>1193.161427706152</v>
       </c>
       <c r="P15" t="n">
-        <v>1281.550393166609</v>
+        <v>1330.93710741934</v>
       </c>
       <c r="Q15" t="n">
-        <v>1341.202308725334</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R15" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S15" t="n">
-        <v>1390.589022978065</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T15" t="n">
-        <v>1390.589022978065</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U15" t="n">
-        <v>1180.6046164196</v>
+        <v>903.0780701287418</v>
       </c>
       <c r="V15" t="n">
-        <v>1180.6046164196</v>
+        <v>680.5380684998089</v>
       </c>
       <c r="W15" t="n">
-        <v>1163.545497067699</v>
+        <v>450.4208226330958</v>
       </c>
       <c r="X15" t="n">
-        <v>974.2384194177105</v>
+        <v>450.4208226330958</v>
       </c>
       <c r="Y15" t="n">
-        <v>794.9242024932176</v>
+        <v>271.106605708603</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3511656109342</v>
+        <v>447.495480073523</v>
       </c>
       <c r="C16" t="n">
-        <v>101.3511656109342</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="D16" t="n">
-        <v>101.3511656109342</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="E16" t="n">
-        <v>101.3511656109342</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3511656109342</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="G16" t="n">
-        <v>101.3511656109342</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H16" t="n">
-        <v>27.81178045956131</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I16" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J16" t="n">
-        <v>67.56364899248427</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K16" t="n">
-        <v>263.6506266134209</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L16" t="n">
-        <v>323.0554805955215</v>
+        <v>409.1263369136169</v>
       </c>
       <c r="M16" t="n">
-        <v>663.497774212274</v>
+        <v>695.9867289216837</v>
       </c>
       <c r="N16" t="n">
-        <v>997.1727640564391</v>
+        <v>764.3064368712621</v>
       </c>
       <c r="O16" t="n">
-        <v>1151.776412495519</v>
+        <v>1066.008786766879</v>
       </c>
       <c r="P16" t="n">
-        <v>1390.589022978065</v>
+        <v>1304.821397249425</v>
       </c>
       <c r="Q16" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R16" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.589022978065</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T16" t="n">
-        <v>1159.157037296345</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="U16" t="n">
-        <v>873.772974042289</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7936288631132</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="W16" t="n">
-        <v>324.4632267942908</v>
+        <v>1089.895882165198</v>
       </c>
       <c r="X16" t="n">
-        <v>324.4632267942908</v>
+        <v>855.8155599481809</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.3511656109342</v>
+        <v>632.7034987648242</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>792.9084289066221</v>
+        <v>677.3661789993347</v>
       </c>
       <c r="C17" t="n">
-        <v>730.1294688323219</v>
+        <v>326.2073348129543</v>
       </c>
       <c r="D17" t="n">
-        <v>378.9706246459416</v>
+        <v>326.2073348129543</v>
       </c>
       <c r="E17" t="n">
-        <v>378.9706246459416</v>
+        <v>326.2073348129543</v>
       </c>
       <c r="F17" t="n">
-        <v>378.9706246459416</v>
+        <v>326.2073348129543</v>
       </c>
       <c r="G17" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H17" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I17" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J17" t="n">
-        <v>97.37723928323635</v>
+        <v>97.37723928323615</v>
       </c>
       <c r="K17" t="n">
-        <v>234.6178659349241</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L17" t="n">
-        <v>428.8631441503476</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M17" t="n">
-        <v>665.5835775618964</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N17" t="n">
-        <v>909.1333705158792</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O17" t="n">
         <v>1130.44261393245</v>
@@ -5542,25 +5542,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S17" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T17" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U17" t="n">
-        <v>1135.015238203104</v>
+        <v>1019.472988295816</v>
       </c>
       <c r="V17" t="n">
-        <v>792.9084289066221</v>
+        <v>677.3661789993347</v>
       </c>
       <c r="W17" t="n">
-        <v>792.9084289066221</v>
+        <v>677.3661789993347</v>
       </c>
       <c r="X17" t="n">
-        <v>792.9084289066221</v>
+        <v>677.3661789993347</v>
       </c>
       <c r="Y17" t="n">
-        <v>792.9084289066221</v>
+        <v>677.3661789993347</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>634.946186644441</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="C18" t="n">
-        <v>484.2919562045333</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="D18" t="n">
-        <v>484.2919562045333</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="E18" t="n">
-        <v>347.845465315421</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="F18" t="n">
-        <v>223.4136591985528</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H18" t="n">
         <v>27.81178045956132</v>
@@ -5594,25 +5594,25 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J18" t="n">
-        <v>57.01289064179395</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K18" t="n">
-        <v>364.6277975410788</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L18" t="n">
-        <v>530.1544517784308</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M18" t="n">
-        <v>735.898214197501</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N18" t="n">
-        <v>956.4530209933678</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O18" t="n">
-        <v>1143.77471345342</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P18" t="n">
-        <v>1281.550393166609</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q18" t="n">
         <v>1341.202308725335</v>
@@ -5624,22 +5624,22 @@
         <v>1390.589022978066</v>
       </c>
       <c r="T18" t="n">
-        <v>1390.589022978066</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U18" t="n">
-        <v>1276.910511790075</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V18" t="n">
-        <v>1054.370510161142</v>
+        <v>785.9047419961071</v>
       </c>
       <c r="W18" t="n">
-        <v>824.2532642944293</v>
+        <v>555.787496129394</v>
       </c>
       <c r="X18" t="n">
-        <v>634.946186644441</v>
+        <v>366.4804184794056</v>
       </c>
       <c r="Y18" t="n">
-        <v>634.946186644441</v>
+        <v>187.1662015549128</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.554553073682</v>
+        <v>501.9006380600747</v>
       </c>
       <c r="C19" t="n">
-        <v>511.554553073682</v>
+        <v>331.6955201260639</v>
       </c>
       <c r="D19" t="n">
-        <v>434.6162969265392</v>
+        <v>331.6955201260639</v>
       </c>
       <c r="E19" t="n">
-        <v>434.6162969265392</v>
+        <v>331.6955201260639</v>
       </c>
       <c r="F19" t="n">
-        <v>277.2903621395122</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="G19" t="n">
-        <v>277.2903621395122</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="H19" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I19" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J19" t="n">
-        <v>27.81178045956132</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K19" t="n">
-        <v>223.8987580804979</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L19" t="n">
-        <v>365.8794737188924</v>
+        <v>409.1263369136169</v>
       </c>
       <c r="M19" t="n">
-        <v>430.6314470270971</v>
+        <v>749.5686305303693</v>
       </c>
       <c r="N19" t="n">
-        <v>764.3064368712622</v>
+        <v>1083.243620374534</v>
       </c>
       <c r="O19" t="n">
-        <v>1066.008786766879</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P19" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q19" t="n">
         <v>1390.589022978066</v>
@@ -5700,25 +5700,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S19" t="n">
-        <v>1205.258696202396</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T19" t="n">
-        <v>1205.258696202396</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U19" t="n">
-        <v>919.8746329483399</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="V19" t="n">
-        <v>919.8746329483399</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="W19" t="n">
-        <v>919.8746329483399</v>
+        <v>821.8745576551878</v>
       </c>
       <c r="X19" t="n">
-        <v>919.8746329483399</v>
+        <v>821.8745576551878</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.7625717649832</v>
+        <v>598.7624964718311</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1275.046773070778</v>
+        <v>337.1124904189251</v>
       </c>
       <c r="C20" t="n">
-        <v>1275.046773070778</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D20" t="n">
-        <v>1275.046773070778</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E20" t="n">
-        <v>1031.304790077265</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F20" t="n">
-        <v>680.1459458908845</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G20" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H20" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I20" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J20" t="n">
         <v>97.37723928323612</v>
@@ -5758,13 +5758,13 @@
         <v>234.6178659349239</v>
       </c>
       <c r="L20" t="n">
-        <v>428.8631441503467</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M20" t="n">
-        <v>665.5835775618957</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N20" t="n">
-        <v>909.1333705158786</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O20" t="n">
         <v>1130.442613932449</v>
@@ -5773,31 +5773,31 @@
         <v>1296.899282459866</v>
       </c>
       <c r="Q20" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R20" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X20" t="n">
-        <v>1275.046773070778</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="Y20" t="n">
-        <v>1275.046773070778</v>
+        <v>688.2713346053054</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>589.4433202161856</v>
+        <v>276.7637669702545</v>
       </c>
       <c r="C21" t="n">
-        <v>589.4433202161856</v>
+        <v>276.7637669702545</v>
       </c>
       <c r="D21" t="n">
-        <v>459.3543528376659</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="E21" t="n">
-        <v>322.9078619485537</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="F21" t="n">
-        <v>231.595340606368</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="G21" t="n">
-        <v>112.7323214741945</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H21" t="n">
-        <v>35.99346186737654</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I21" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J21" t="n">
-        <v>57.01289064179396</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L21" t="n">
-        <v>501.8936582859006</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M21" t="n">
-        <v>735.8982141975004</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N21" t="n">
-        <v>956.4530209933671</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O21" t="n">
-        <v>1143.77471345342</v>
+        <v>1193.161427706152</v>
       </c>
       <c r="P21" t="n">
-        <v>1281.550393166609</v>
+        <v>1330.93710741934</v>
       </c>
       <c r="Q21" t="n">
-        <v>1341.202308725334</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R21" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S21" t="n">
-        <v>1390.589022978065</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T21" t="n">
-        <v>1390.589022978065</v>
+        <v>1128.712498674355</v>
       </c>
       <c r="U21" t="n">
-        <v>1180.6046164196</v>
+        <v>918.7280921158889</v>
       </c>
       <c r="V21" t="n">
-        <v>958.0646147906666</v>
+        <v>696.188090486956</v>
       </c>
       <c r="W21" t="n">
-        <v>958.0646147906666</v>
+        <v>466.0708446202428</v>
       </c>
       <c r="X21" t="n">
-        <v>768.7575371406783</v>
+        <v>276.7637669702545</v>
       </c>
       <c r="Y21" t="n">
-        <v>589.4433202161856</v>
+        <v>276.7637669702545</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.5497529870145</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="C22" t="n">
-        <v>340.6965273873859</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="D22" t="n">
-        <v>340.6965273873859</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="E22" t="n">
         <v>185.1377152465884</v>
       </c>
       <c r="F22" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G22" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H22" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I22" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J22" t="n">
-        <v>27.81178045956131</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="K22" t="n">
         <v>59.0436853378166</v>
@@ -5928,34 +5928,34 @@
         <v>1345.194101737228</v>
       </c>
       <c r="P22" t="n">
-        <v>1375.50257583757</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1390.589022978065</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R22" t="n">
-        <v>1311.802563776864</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S22" t="n">
-        <v>1126.472237001194</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T22" t="n">
-        <v>1126.472237001194</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U22" t="n">
-        <v>841.0881737471382</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="V22" t="n">
-        <v>841.0881737471382</v>
+        <v>839.2256145448342</v>
       </c>
       <c r="W22" t="n">
-        <v>557.7577716783157</v>
+        <v>604.4260561549065</v>
       </c>
       <c r="X22" t="n">
-        <v>557.7577716783157</v>
+        <v>370.3457339378896</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.7577716783157</v>
+        <v>370.3457339378896</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.7863586879696</v>
+        <v>1087.269135785182</v>
       </c>
       <c r="C23" t="n">
-        <v>749.7863586879696</v>
+        <v>851.1945623264821</v>
       </c>
       <c r="D23" t="n">
-        <v>749.7863586879696</v>
+        <v>851.1945623264821</v>
       </c>
       <c r="E23" t="n">
-        <v>749.7863586879696</v>
+        <v>448.6110374430266</v>
       </c>
       <c r="F23" t="n">
-        <v>749.7863586879696</v>
+        <v>448.6110374430266</v>
       </c>
       <c r="G23" t="n">
-        <v>338.8604130564626</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H23" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I23" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J23" t="n">
-        <v>107.2505506351944</v>
+        <v>368.4033631069451</v>
       </c>
       <c r="K23" t="n">
-        <v>244.4911772868822</v>
+        <v>505.6439897586329</v>
       </c>
       <c r="L23" t="n">
-        <v>710.8441884544366</v>
+        <v>699.8892679740562</v>
       </c>
       <c r="M23" t="n">
-        <v>1159.249145159807</v>
+        <v>936.6097013856051</v>
       </c>
       <c r="N23" t="n">
-        <v>1402.79893811379</v>
+        <v>1180.159494339588</v>
       </c>
       <c r="O23" t="n">
-        <v>1624.108181530361</v>
+        <v>1401.468737756159</v>
       </c>
       <c r="P23" t="n">
-        <v>1790.564850057778</v>
+        <v>1567.925406283576</v>
       </c>
       <c r="Q23" t="n">
-        <v>1884.254590575978</v>
+        <v>1783.77954602446</v>
       </c>
       <c r="R23" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S23" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T23" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U23" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="V23" t="n">
-        <v>1510.237998786625</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="W23" t="n">
-        <v>1139.238963754913</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="X23" t="n">
-        <v>749.7863586879696</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.7863586879696</v>
+        <v>1487.763881496579</v>
       </c>
     </row>
     <row r="24">
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>644.8194979963994</v>
+        <v>449.2176192574078</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1652675564915</v>
+        <v>298.5633888175</v>
       </c>
       <c r="D24" t="n">
-        <v>494.1652675564915</v>
+        <v>298.5633888175</v>
       </c>
       <c r="E24" t="n">
-        <v>357.7187766673792</v>
+        <v>162.1168979283877</v>
       </c>
       <c r="F24" t="n">
-        <v>233.286970550511</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="G24" t="n">
-        <v>114.4239514183375</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H24" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I24" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J24" t="n">
         <v>261.6211969734796</v>
       </c>
       <c r="K24" t="n">
-        <v>362.331181430515</v>
+        <v>727.9742081410341</v>
       </c>
       <c r="L24" t="n">
-        <v>527.8578356678671</v>
+        <v>893.5008623783862</v>
       </c>
       <c r="M24" t="n">
-        <v>733.6015980869374</v>
+        <v>1099.244624797456</v>
       </c>
       <c r="N24" t="n">
-        <v>954.1564048828042</v>
+        <v>1319.799431593323</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.383632124818</v>
+        <v>1507.121124053376</v>
       </c>
       <c r="P24" t="n">
-        <v>1500.159311838006</v>
+        <v>1775.215960764521</v>
       </c>
       <c r="Q24" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R24" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.553926199089</v>
+        <v>1771.55392619909</v>
       </c>
       <c r="T24" t="n">
         <v>1599.394053404529</v>
@@ -6107,13 +6107,13 @@
         <v>1166.86964521713</v>
       </c>
       <c r="W24" t="n">
-        <v>936.7523993504171</v>
+        <v>936.7523993504174</v>
       </c>
       <c r="X24" t="n">
-        <v>936.7523993504171</v>
+        <v>747.4453217004291</v>
       </c>
       <c r="Y24" t="n">
-        <v>757.4381824259244</v>
+        <v>601.0139536983692</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.6508763147078</v>
+        <v>771.1397984545772</v>
       </c>
       <c r="C25" t="n">
-        <v>759.445758380697</v>
+        <v>600.9346805205664</v>
       </c>
       <c r="D25" t="n">
-        <v>603.8126452832119</v>
+        <v>454.4143714845674</v>
       </c>
       <c r="E25" t="n">
         <v>454.4143714845674</v>
@@ -6144,19 +6144,19 @@
         <v>140.6058686119949</v>
       </c>
       <c r="I25" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J25" t="n">
-        <v>77.43696034444253</v>
+        <v>77.43696034444258</v>
       </c>
       <c r="K25" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L25" t="n">
-        <v>583.8547210082561</v>
+        <v>583.8547210082564</v>
       </c>
       <c r="M25" t="n">
-        <v>924.2970146250086</v>
+        <v>924.297014625009</v>
       </c>
       <c r="N25" t="n">
         <v>1257.972004469174</v>
@@ -6174,25 +6174,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S25" t="n">
-        <v>1884.254590575978</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T25" t="n">
-        <v>1652.822604894257</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="U25" t="n">
-        <v>1652.822604894257</v>
+        <v>1413.540200546252</v>
       </c>
       <c r="V25" t="n">
-        <v>1386.843259715081</v>
+        <v>1413.540200546252</v>
       </c>
       <c r="W25" t="n">
-        <v>1386.843259715081</v>
+        <v>1413.540200546252</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.762937498065</v>
+        <v>1179.459878329235</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.6508763147078</v>
+        <v>956.3478171458785</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>841.7865389400961</v>
+        <v>873.560168596443</v>
       </c>
       <c r="C26" t="n">
-        <v>448.6110374430266</v>
+        <v>873.560168596443</v>
       </c>
       <c r="D26" t="n">
-        <v>448.6110374430266</v>
+        <v>873.560168596443</v>
       </c>
       <c r="E26" t="n">
-        <v>448.6110374430266</v>
+        <v>873.560168596443</v>
       </c>
       <c r="F26" t="n">
-        <v>448.6110374430266</v>
+        <v>801.8888626779211</v>
       </c>
       <c r="G26" t="n">
-        <v>37.68509181151955</v>
+        <v>390.9629170464141</v>
       </c>
       <c r="H26" t="n">
-        <v>37.68509181151955</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="I26" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J26" t="n">
         <v>368.4033631069451</v>
       </c>
       <c r="K26" t="n">
-        <v>728.283433532835</v>
+        <v>728.2834335328353</v>
       </c>
       <c r="L26" t="n">
-        <v>922.5287117482584</v>
+        <v>922.5287117482586</v>
       </c>
       <c r="M26" t="n">
-        <v>1159.249145159807</v>
+        <v>1159.249145159808</v>
       </c>
       <c r="N26" t="n">
         <v>1402.79893811379</v>
@@ -6256,22 +6256,22 @@
         <v>1884.254590575978</v>
       </c>
       <c r="T26" t="n">
-        <v>1670.545623387238</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="U26" t="n">
-        <v>1414.971838612276</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="V26" t="n">
-        <v>1231.239144007039</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="W26" t="n">
-        <v>1231.239144007039</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="X26" t="n">
-        <v>841.7865389400961</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="Y26" t="n">
-        <v>841.7865389400961</v>
+        <v>1274.05491430784</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>638.8747719639077</v>
+        <v>508.373007107287</v>
       </c>
       <c r="C27" t="n">
-        <v>488.2205415239999</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="D27" t="n">
-        <v>358.1315741454803</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="E27" t="n">
-        <v>221.685083256368</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="F27" t="n">
-        <v>156.548110943693</v>
+        <v>233.286970550511</v>
       </c>
       <c r="G27" t="n">
-        <v>37.68509181151955</v>
+        <v>114.4239514183375</v>
       </c>
       <c r="H27" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I27" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J27" t="n">
         <v>261.6211969734796</v>
       </c>
       <c r="K27" t="n">
-        <v>362.331181430515</v>
+        <v>557.4670082087878</v>
       </c>
       <c r="L27" t="n">
-        <v>527.8578356678671</v>
+        <v>1023.820019376342</v>
       </c>
       <c r="M27" t="n">
-        <v>733.6015980869374</v>
+        <v>1229.563781795413</v>
       </c>
       <c r="N27" t="n">
-        <v>1199.954609254492</v>
+        <v>1450.118588591279</v>
       </c>
       <c r="O27" t="n">
         <v>1637.440281051332</v>
@@ -6332,7 +6332,7 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S27" t="n">
-        <v>1771.553926199089</v>
+        <v>1771.55392619909</v>
       </c>
       <c r="T27" t="n">
         <v>1599.394053404529</v>
@@ -6341,16 +6341,16 @@
         <v>1389.409646846063</v>
       </c>
       <c r="V27" t="n">
-        <v>1389.409646846063</v>
+        <v>1166.86964521713</v>
       </c>
       <c r="W27" t="n">
-        <v>1159.29240097935</v>
+        <v>1028.790636122729</v>
       </c>
       <c r="X27" t="n">
-        <v>969.9853233293618</v>
+        <v>839.4835584727412</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.6711064048691</v>
+        <v>660.1693415482484</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.8492576300426</v>
+        <v>937.5042363464028</v>
       </c>
       <c r="C28" t="n">
-        <v>350.6441396960319</v>
+        <v>767.299118412392</v>
       </c>
       <c r="D28" t="n">
-        <v>195.0110265985466</v>
+        <v>767.299118412392</v>
       </c>
       <c r="E28" t="n">
-        <v>195.0110265985466</v>
+        <v>611.7403062715945</v>
       </c>
       <c r="F28" t="n">
-        <v>37.68509181151955</v>
+        <v>454.4143714845674</v>
       </c>
       <c r="G28" t="n">
-        <v>37.68509181151918</v>
+        <v>287.1636734914704</v>
       </c>
       <c r="H28" t="n">
-        <v>37.68509181151918</v>
+        <v>140.6058686119949</v>
       </c>
       <c r="I28" t="n">
-        <v>37.68509181151918</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J28" t="n">
-        <v>77.43696034444216</v>
+        <v>77.4369603444425</v>
       </c>
       <c r="K28" t="n">
-        <v>273.5239379653788</v>
+        <v>273.5239379653792</v>
       </c>
       <c r="L28" t="n">
-        <v>583.8547210082561</v>
+        <v>583.8547210082563</v>
       </c>
       <c r="M28" t="n">
-        <v>924.2970146250086</v>
+        <v>924.2970146250091</v>
       </c>
       <c r="N28" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O28" t="n">
-        <v>1559.67435436479</v>
+        <v>1559.674354364791</v>
       </c>
       <c r="P28" t="n">
         <v>1798.486964847337</v>
@@ -6411,25 +6411,25 @@
         <v>1805.468131374776</v>
       </c>
       <c r="S28" t="n">
-        <v>1714.613068154949</v>
+        <v>1620.137804599106</v>
       </c>
       <c r="T28" t="n">
-        <v>1714.613068154949</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="U28" t="n">
-        <v>1429.229004900893</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.249659721718</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.249659721718</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="X28" t="n">
-        <v>929.1693375047006</v>
+        <v>1345.824316221061</v>
       </c>
       <c r="Y28" t="n">
-        <v>706.0572763213439</v>
+        <v>1122.712255037704</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>441.4027834403599</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="C29" t="n">
-        <v>441.4027834403599</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="D29" t="n">
-        <v>441.4027834403599</v>
+        <v>1127.697427110396</v>
       </c>
       <c r="E29" t="n">
-        <v>38.8192585569044</v>
+        <v>1127.697427110396</v>
       </c>
       <c r="F29" t="n">
-        <v>37.68509181151955</v>
+        <v>749.7863586879696</v>
       </c>
       <c r="G29" t="n">
-        <v>37.68509181151955</v>
+        <v>338.8604130564626</v>
       </c>
       <c r="H29" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I29" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J29" t="n">
-        <v>107.2505506351944</v>
+        <v>368.4033631069451</v>
       </c>
       <c r="K29" t="n">
-        <v>244.4911772868822</v>
+        <v>627.8083889813176</v>
       </c>
       <c r="L29" t="n">
-        <v>438.7364555023055</v>
+        <v>822.053667196741</v>
       </c>
       <c r="M29" t="n">
-        <v>675.4568889138544</v>
+        <v>1058.77410060829</v>
       </c>
       <c r="N29" t="n">
-        <v>974.4246219871159</v>
+        <v>1302.323893562273</v>
       </c>
       <c r="O29" t="n">
-        <v>1195.733865403686</v>
+        <v>1523.633136978843</v>
       </c>
       <c r="P29" t="n">
-        <v>1362.190533931104</v>
+        <v>1690.089805506261</v>
       </c>
       <c r="Q29" t="n">
         <v>1783.77954602446</v>
@@ -6493,22 +6493,22 @@
         <v>1768.71234066869</v>
       </c>
       <c r="T29" t="n">
-        <v>1555.003373479951</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="U29" t="n">
-        <v>1555.003373479951</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="V29" t="n">
-        <v>1212.896564183469</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="W29" t="n">
-        <v>841.8975291517568</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="X29" t="n">
-        <v>841.8975291517568</v>
+        <v>1513.138555893728</v>
       </c>
       <c r="Y29" t="n">
-        <v>841.8975291517568</v>
+        <v>1513.138555893728</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>579.3065866359275</v>
+        <v>417.4264079496735</v>
       </c>
       <c r="C30" t="n">
-        <v>428.6523561960197</v>
+        <v>417.4264079496735</v>
       </c>
       <c r="D30" t="n">
-        <v>298.5633888175</v>
+        <v>417.4264079496735</v>
       </c>
       <c r="E30" t="n">
-        <v>162.1168979283877</v>
+        <v>280.9799170605613</v>
       </c>
       <c r="F30" t="n">
-        <v>37.68509181151955</v>
+        <v>156.548110943693</v>
       </c>
       <c r="G30" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H30" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I30" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J30" t="n">
         <v>261.6211969734796</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1027479373555</v>
+        <v>533.8500019597449</v>
       </c>
       <c r="L30" t="n">
-        <v>744.6294021747076</v>
+        <v>699.376656197097</v>
       </c>
       <c r="M30" t="n">
-        <v>950.3731645937779</v>
+        <v>905.1204186161673</v>
       </c>
       <c r="N30" t="n">
-        <v>1170.927971389645</v>
+        <v>1125.675225412034</v>
       </c>
       <c r="O30" t="n">
-        <v>1358.249663849697</v>
+        <v>1312.996917872087</v>
       </c>
       <c r="P30" t="n">
-        <v>1824.602675017252</v>
+        <v>1450.772597585275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R30" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S30" t="n">
-        <v>1884.254590575978</v>
+        <v>1771.55392619909</v>
       </c>
       <c r="T30" t="n">
-        <v>1712.094717781417</v>
+        <v>1599.394053404529</v>
       </c>
       <c r="U30" t="n">
-        <v>1502.110311222951</v>
+        <v>1389.409646846063</v>
       </c>
       <c r="V30" t="n">
-        <v>1279.570309594018</v>
+        <v>1166.86964521713</v>
       </c>
       <c r="W30" t="n">
-        <v>1049.453063727305</v>
+        <v>936.7523993504174</v>
       </c>
       <c r="X30" t="n">
-        <v>860.145986077317</v>
+        <v>747.4453217004291</v>
       </c>
       <c r="Y30" t="n">
-        <v>680.8317691528243</v>
+        <v>568.1311047759364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>447.5904489252321</v>
+        <v>444.9421123899357</v>
       </c>
       <c r="C31" t="n">
-        <v>277.3853309912213</v>
+        <v>444.9421123899357</v>
       </c>
       <c r="D31" t="n">
-        <v>277.3853309912213</v>
+        <v>444.9421123899357</v>
       </c>
       <c r="E31" t="n">
-        <v>121.8265188504238</v>
+        <v>362.2617245916437</v>
       </c>
       <c r="F31" t="n">
-        <v>37.68509181151955</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="G31" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H31" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I31" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J31" t="n">
         <v>77.43696034444253</v>
@@ -6651,22 +6651,22 @@
         <v>1698.924263800308</v>
       </c>
       <c r="T31" t="n">
-        <v>1467.492278118587</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="U31" t="n">
-        <v>1182.108214864531</v>
+        <v>1413.540200546252</v>
       </c>
       <c r="V31" t="n">
-        <v>916.1288696853557</v>
+        <v>1147.560855367076</v>
       </c>
       <c r="W31" t="n">
-        <v>632.7984676165333</v>
+        <v>864.2304532982539</v>
       </c>
       <c r="X31" t="n">
-        <v>632.7984676165333</v>
+        <v>630.150131081237</v>
       </c>
       <c r="Y31" t="n">
-        <v>632.7984676165333</v>
+        <v>630.150131081237</v>
       </c>
     </row>
     <row r="32">
@@ -6691,25 +6691,25 @@
         <v>448.6110374430266</v>
       </c>
       <c r="G32" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H32" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I32" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J32" t="n">
         <v>368.4033631069451</v>
       </c>
       <c r="K32" t="n">
-        <v>728.283433532835</v>
+        <v>728.2834335328353</v>
       </c>
       <c r="L32" t="n">
-        <v>922.5287117482584</v>
+        <v>922.5287117482586</v>
       </c>
       <c r="M32" t="n">
-        <v>1159.249145159807</v>
+        <v>1159.249145159808</v>
       </c>
       <c r="N32" t="n">
         <v>1402.79893811379</v>
@@ -6727,19 +6727,19 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S32" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="T32" t="n">
-        <v>1670.545623387238</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="U32" t="n">
-        <v>1414.971838612276</v>
+        <v>1299.429588704989</v>
       </c>
       <c r="V32" t="n">
-        <v>1414.971838612276</v>
+        <v>957.322779408507</v>
       </c>
       <c r="W32" t="n">
-        <v>1254.958080979992</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="X32" t="n">
         <v>865.5054759130488</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>783.0901467827342</v>
+        <v>529.0354347118632</v>
       </c>
       <c r="C33" t="n">
-        <v>632.4359163428264</v>
+        <v>378.3812042719554</v>
       </c>
       <c r="D33" t="n">
-        <v>502.3469489643067</v>
+        <v>378.3812042719554</v>
       </c>
       <c r="E33" t="n">
-        <v>365.9004580751944</v>
+        <v>289.1615984683765</v>
       </c>
       <c r="F33" t="n">
-        <v>241.4686519583262</v>
+        <v>164.7297923515083</v>
       </c>
       <c r="G33" t="n">
-        <v>122.6056328261528</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="H33" t="n">
-        <v>45.86677321933477</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="I33" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J33" t="n">
-        <v>66.88620199375219</v>
+        <v>116.8837050449219</v>
       </c>
       <c r="K33" t="n">
-        <v>254.8186832522431</v>
+        <v>583.2367162124764</v>
       </c>
       <c r="L33" t="n">
-        <v>420.3453374895952</v>
+        <v>748.7633704498285</v>
       </c>
       <c r="M33" t="n">
-        <v>626.0890999086655</v>
+        <v>954.5071328688988</v>
       </c>
       <c r="N33" t="n">
-        <v>846.6439067045322</v>
+        <v>1175.061939664766</v>
       </c>
       <c r="O33" t="n">
-        <v>1312.996917872087</v>
+        <v>1362.383632124818</v>
       </c>
       <c r="P33" t="n">
-        <v>1450.772597585275</v>
+        <v>1500.159311838007</v>
       </c>
       <c r="Q33" t="n">
-        <v>1834.867876323246</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R33" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S33" t="n">
-        <v>1807.198751281395</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T33" t="n">
-        <v>1635.038878486835</v>
+        <v>1712.094717781418</v>
       </c>
       <c r="U33" t="n">
-        <v>1425.054471928369</v>
+        <v>1502.110311222952</v>
       </c>
       <c r="V33" t="n">
-        <v>1202.514470299436</v>
+        <v>1279.570309594019</v>
       </c>
       <c r="W33" t="n">
-        <v>972.3972244327226</v>
+        <v>1049.453063727306</v>
       </c>
       <c r="X33" t="n">
-        <v>783.0901467827342</v>
+        <v>860.1459860773173</v>
       </c>
       <c r="Y33" t="n">
-        <v>783.0901467827342</v>
+        <v>680.8317691528246</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>946.5795445644126</v>
+        <v>366.1556531887346</v>
       </c>
       <c r="C34" t="n">
-        <v>776.3744266304018</v>
+        <v>366.1556531887346</v>
       </c>
       <c r="D34" t="n">
-        <v>620.7413135329166</v>
+        <v>366.1556531887346</v>
       </c>
       <c r="E34" t="n">
-        <v>465.182501392119</v>
+        <v>210.5968410479371</v>
       </c>
       <c r="F34" t="n">
-        <v>307.856566605092</v>
+        <v>53.27090626091007</v>
       </c>
       <c r="G34" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H34" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I34" t="n">
-        <v>37.68509181151955</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J34" t="n">
-        <v>77.43696034444258</v>
+        <v>77.43696034444253</v>
       </c>
       <c r="K34" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L34" t="n">
-        <v>583.8547210082564</v>
+        <v>583.8547210082565</v>
       </c>
       <c r="M34" t="n">
-        <v>924.297014625009</v>
+        <v>924.2970146250091</v>
       </c>
       <c r="N34" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O34" t="n">
-        <v>1559.67435436479</v>
+        <v>1559.674354364791</v>
       </c>
       <c r="P34" t="n">
-        <v>1798.486964847337</v>
+        <v>1798.486964847338</v>
       </c>
       <c r="Q34" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="R34" t="n">
-        <v>1805.468131374776</v>
+        <v>1805.468131374777</v>
       </c>
       <c r="S34" t="n">
-        <v>1620.137804599106</v>
+        <v>1620.137804599107</v>
       </c>
       <c r="T34" t="n">
-        <v>1620.137804599106</v>
+        <v>1620.137804599107</v>
       </c>
       <c r="U34" t="n">
-        <v>1334.75374134505</v>
+        <v>1334.753741345051</v>
       </c>
       <c r="V34" t="n">
-        <v>1334.75374134505</v>
+        <v>1068.774396165875</v>
       </c>
       <c r="W34" t="n">
-        <v>1334.75374134505</v>
+        <v>785.4439940970528</v>
       </c>
       <c r="X34" t="n">
-        <v>1131.787563255714</v>
+        <v>551.3636718800359</v>
       </c>
       <c r="Y34" t="n">
-        <v>1131.787563255714</v>
+        <v>551.3636718800359</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.463634263645</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="C35" t="n">
-        <v>1382.463634263645</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="D35" t="n">
-        <v>1031.304790077265</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="E35" t="n">
-        <v>680.1459458908846</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="F35" t="n">
-        <v>680.1459458908846</v>
+        <v>431.0731286358932</v>
       </c>
       <c r="G35" t="n">
-        <v>328.9871017045043</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H35" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I35" t="n">
         <v>27.81178045956132</v>
@@ -6940,22 +6940,22 @@
         <v>97.37723928323612</v>
       </c>
       <c r="K35" t="n">
-        <v>234.6178659349239</v>
+        <v>234.6178659349237</v>
       </c>
       <c r="L35" t="n">
-        <v>428.8631441503473</v>
+        <v>428.8631441503471</v>
       </c>
       <c r="M35" t="n">
-        <v>665.5835775618962</v>
+        <v>665.5835775618959</v>
       </c>
       <c r="N35" t="n">
         <v>909.1333705158788</v>
       </c>
       <c r="O35" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P35" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q35" t="n">
         <v>1390.589022978066</v>
@@ -6964,25 +6964,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S35" t="n">
-        <v>1382.463634263645</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T35" t="n">
-        <v>1382.463634263645</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U35" t="n">
-        <v>1382.463634263645</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V35" t="n">
-        <v>1382.463634263645</v>
+        <v>1133.390817008654</v>
       </c>
       <c r="W35" t="n">
-        <v>1382.463634263645</v>
+        <v>1133.390817008654</v>
       </c>
       <c r="X35" t="n">
-        <v>1382.463634263645</v>
+        <v>1133.390817008654</v>
       </c>
       <c r="Y35" t="n">
-        <v>1382.463634263645</v>
+        <v>1133.390817008654</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>563.8644882992746</v>
+        <v>224.6769447639398</v>
       </c>
       <c r="C36" t="n">
-        <v>413.2102578593668</v>
+        <v>224.6769447639398</v>
       </c>
       <c r="D36" t="n">
-        <v>283.1212904808471</v>
+        <v>224.6769447639398</v>
       </c>
       <c r="E36" t="n">
-        <v>146.6747995917348</v>
+        <v>88.23045387482756</v>
       </c>
       <c r="F36" t="n">
-        <v>146.6747995917348</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="G36" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H36" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="I36" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J36" t="n">
-        <v>85.27368413432376</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K36" t="n">
-        <v>185.9836685913592</v>
+        <v>157.7228750988294</v>
       </c>
       <c r="L36" t="n">
-        <v>530.1544517784305</v>
+        <v>323.2495293361815</v>
       </c>
       <c r="M36" t="n">
-        <v>735.8982141975008</v>
+        <v>528.9932917552518</v>
       </c>
       <c r="N36" t="n">
-        <v>956.4530209933675</v>
+        <v>749.5480985511185</v>
       </c>
       <c r="O36" t="n">
-        <v>1143.77471345342</v>
+        <v>936.8697910111712</v>
       </c>
       <c r="P36" t="n">
-        <v>1281.550393166609</v>
+        <v>1074.64547072436</v>
       </c>
       <c r="Q36" t="n">
-        <v>1341.202308725335</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R36" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S36" t="n">
-        <v>1340.477943030442</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T36" t="n">
-        <v>1168.318070235882</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U36" t="n">
-        <v>1168.318070235882</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V36" t="n">
-        <v>945.7780686069491</v>
+        <v>785.9047419961071</v>
       </c>
       <c r="W36" t="n">
-        <v>715.660822740236</v>
+        <v>555.787496129394</v>
       </c>
       <c r="X36" t="n">
-        <v>715.660822740236</v>
+        <v>555.787496129394</v>
       </c>
       <c r="Y36" t="n">
-        <v>715.660822740236</v>
+        <v>376.4732792049012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.1381433574436</v>
+        <v>927.6309249944445</v>
       </c>
       <c r="C37" t="n">
-        <v>810.1381433574436</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="D37" t="n">
-        <v>654.5050302599584</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="E37" t="n">
-        <v>498.9462181191609</v>
+        <v>601.8669949196362</v>
       </c>
       <c r="F37" t="n">
-        <v>341.6202833321339</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="G37" t="n">
-        <v>174.3695853390368</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H37" t="n">
-        <v>27.81178045956132</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I37" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J37" t="n">
-        <v>27.81178045956132</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K37" t="n">
-        <v>59.0436853378166</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L37" t="n">
-        <v>369.3744683806939</v>
+        <v>384.4609155211904</v>
       </c>
       <c r="M37" t="n">
-        <v>434.1264416888986</v>
+        <v>724.9032091379429</v>
       </c>
       <c r="N37" t="n">
-        <v>767.8014315330637</v>
+        <v>1058.578198982108</v>
       </c>
       <c r="O37" t="n">
-        <v>1066.008786766879</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P37" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q37" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R37" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S37" t="n">
-        <v>1326.95419229322</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="T37" t="n">
-        <v>1095.5222066115</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="U37" t="n">
-        <v>810.1381433574436</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="V37" t="n">
-        <v>810.1381433574436</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="W37" t="n">
-        <v>810.1381433574436</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="X37" t="n">
-        <v>810.1381433574436</v>
+        <v>1112.838943685746</v>
       </c>
       <c r="Y37" t="n">
-        <v>810.1381433574436</v>
+        <v>1112.838943685746</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>378.9706246459416</v>
+        <v>431.0731286358933</v>
       </c>
       <c r="C38" t="n">
-        <v>378.9706246459416</v>
+        <v>431.0731286358933</v>
       </c>
       <c r="D38" t="n">
-        <v>378.9706246459416</v>
+        <v>431.0731286358933</v>
       </c>
       <c r="E38" t="n">
-        <v>27.81178045956132</v>
+        <v>431.0731286358933</v>
       </c>
       <c r="F38" t="n">
-        <v>27.81178045956132</v>
+        <v>431.0731286358933</v>
       </c>
       <c r="G38" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H38" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I38" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J38" t="n">
-        <v>97.37723928323614</v>
+        <v>97.37723928323615</v>
       </c>
       <c r="K38" t="n">
         <v>234.6178659349239</v>
@@ -7201,25 +7201,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S38" t="n">
-        <v>1275.046773070778</v>
+        <v>1275.046773070779</v>
       </c>
       <c r="T38" t="n">
-        <v>1061.337805882039</v>
+        <v>1124.338782118755</v>
       </c>
       <c r="U38" t="n">
-        <v>1061.337805882039</v>
+        <v>1124.338782118755</v>
       </c>
       <c r="V38" t="n">
-        <v>719.2309965855574</v>
+        <v>782.2319728222737</v>
       </c>
       <c r="W38" t="n">
-        <v>378.9706246459416</v>
+        <v>782.2319728222737</v>
       </c>
       <c r="X38" t="n">
-        <v>378.9706246459416</v>
+        <v>782.2319728222737</v>
       </c>
       <c r="Y38" t="n">
-        <v>378.9706246459416</v>
+        <v>431.0731286358933</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492.4736376123485</v>
+        <v>316.736659685804</v>
       </c>
       <c r="C39" t="n">
-        <v>492.4736376123485</v>
+        <v>166.0824292458962</v>
       </c>
       <c r="D39" t="n">
-        <v>492.4736376123485</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="E39" t="n">
-        <v>356.0271467232362</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="F39" t="n">
-        <v>231.595340606368</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7323214741945</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H39" t="n">
         <v>35.99346186737655</v>
       </c>
       <c r="I39" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J39" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K39" t="n">
-        <v>157.7228750988294</v>
+        <v>414.0145117938104</v>
       </c>
       <c r="L39" t="n">
-        <v>323.2495293361815</v>
+        <v>579.5411660311624</v>
       </c>
       <c r="M39" t="n">
-        <v>528.9932917552518</v>
+        <v>785.2849284502328</v>
       </c>
       <c r="N39" t="n">
-        <v>749.5480985511185</v>
+        <v>1005.8397352461</v>
       </c>
       <c r="O39" t="n">
-        <v>936.8697910111712</v>
+        <v>1193.161427706152</v>
       </c>
       <c r="P39" t="n">
-        <v>1074.64547072436</v>
+        <v>1330.937107419341</v>
       </c>
       <c r="Q39" t="n">
-        <v>1341.202308725335</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R39" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S39" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T39" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U39" t="n">
-        <v>1105.728485806618</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V39" t="n">
-        <v>883.1884841776846</v>
+        <v>915.4752001269983</v>
       </c>
       <c r="W39" t="n">
-        <v>883.1884841776846</v>
+        <v>685.3579542602852</v>
       </c>
       <c r="X39" t="n">
-        <v>823.5841889778026</v>
+        <v>496.0508766102968</v>
       </c>
       <c r="Y39" t="n">
-        <v>644.2699720533099</v>
+        <v>316.736659685804</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.67676759309</v>
+        <v>355.3428331805992</v>
       </c>
       <c r="C40" t="n">
-        <v>75.47164965907922</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="D40" t="n">
-        <v>75.47164965907922</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="E40" t="n">
-        <v>75.47164965907922</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="F40" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="G40" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H40" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I40" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J40" t="n">
-        <v>27.81178045956132</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="K40" t="n">
-        <v>59.0436853378166</v>
+        <v>59.04368533781661</v>
       </c>
       <c r="L40" t="n">
         <v>369.3744683806939</v>
@@ -7344,40 +7344,40 @@
         <v>709.8167619974464</v>
       </c>
       <c r="N40" t="n">
-        <v>1043.491751841611</v>
+        <v>778.1364699470248</v>
       </c>
       <c r="O40" t="n">
-        <v>1345.194101737228</v>
+        <v>1079.838819842641</v>
       </c>
       <c r="P40" t="n">
-        <v>1375.50257583757</v>
+        <v>1318.651430325188</v>
       </c>
       <c r="Q40" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R40" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S40" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.370578095144</v>
+        <v>1190.036643682653</v>
       </c>
       <c r="U40" t="n">
-        <v>794.9865148410881</v>
+        <v>904.6525804285974</v>
       </c>
       <c r="V40" t="n">
-        <v>529.0071696619124</v>
+        <v>638.6732352494216</v>
       </c>
       <c r="W40" t="n">
-        <v>245.67676759309</v>
+        <v>355.3428331805992</v>
       </c>
       <c r="X40" t="n">
-        <v>245.67676759309</v>
+        <v>355.3428331805992</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.67676759309</v>
+        <v>355.3428331805992</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123.403523230186</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="C41" t="n">
-        <v>123.403523230186</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="D41" t="n">
-        <v>27.81178045956132</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="E41" t="n">
-        <v>27.81178045956132</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="F41" t="n">
-        <v>27.81178045956132</v>
+        <v>431.0731286358932</v>
       </c>
       <c r="G41" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H41" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I41" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J41" t="n">
-        <v>97.37723928323614</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K41" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L41" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M41" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N41" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O41" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P41" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q41" t="n">
         <v>1390.589022978066</v>
@@ -7438,25 +7438,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T41" t="n">
-        <v>1176.880055789327</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U41" t="n">
-        <v>1176.880055789327</v>
+        <v>1124.338782118755</v>
       </c>
       <c r="V41" t="n">
-        <v>1176.880055789327</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="W41" t="n">
-        <v>825.7212116029466</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="X41" t="n">
-        <v>474.5623674165663</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="Y41" t="n">
-        <v>123.403523230186</v>
+        <v>782.2319728222735</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>365.4289370723598</v>
+        <v>467.8942753013503</v>
       </c>
       <c r="C42" t="n">
-        <v>365.4289370723598</v>
+        <v>317.2400448614425</v>
       </c>
       <c r="D42" t="n">
-        <v>365.4289370723598</v>
+        <v>317.2400448614425</v>
       </c>
       <c r="E42" t="n">
-        <v>228.9824461832475</v>
+        <v>317.2400448614425</v>
       </c>
       <c r="F42" t="n">
-        <v>104.5506400663793</v>
+        <v>231.595340606368</v>
       </c>
       <c r="G42" t="n">
-        <v>104.5506400663793</v>
+        <v>112.7323214741945</v>
       </c>
       <c r="H42" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="I42" t="n">
         <v>27.81178045956132</v>
@@ -7502,13 +7502,13 @@
         <v>723.7282867349792</v>
       </c>
       <c r="N42" t="n">
-        <v>956.4530209933675</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O42" t="n">
-        <v>1143.77471345342</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P42" t="n">
-        <v>1281.550393166609</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q42" t="n">
         <v>1341.202308725335</v>
@@ -7517,25 +7517,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S42" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T42" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U42" t="n">
-        <v>895.7440792481516</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="V42" t="n">
-        <v>895.7440792481516</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="W42" t="n">
-        <v>885.8465660878021</v>
+        <v>988.3119043167926</v>
       </c>
       <c r="X42" t="n">
-        <v>696.5394884378138</v>
+        <v>799.0048266668043</v>
       </c>
       <c r="Y42" t="n">
-        <v>517.2252715133211</v>
+        <v>619.6906097423116</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.38290457727439</v>
+        <v>821.8745576551876</v>
       </c>
       <c r="C43" t="n">
-        <v>27.81178045956132</v>
+        <v>821.8745576551876</v>
       </c>
       <c r="D43" t="n">
-        <v>27.81178045956132</v>
+        <v>666.2414445577024</v>
       </c>
       <c r="E43" t="n">
-        <v>27.81178045956132</v>
+        <v>510.6826324169049</v>
       </c>
       <c r="F43" t="n">
-        <v>27.81178045956132</v>
+        <v>353.3566976298778</v>
       </c>
       <c r="G43" t="n">
-        <v>27.81178045956132</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H43" t="n">
-        <v>27.81178045956132</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I43" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J43" t="n">
-        <v>67.5636489924843</v>
+        <v>42.89822760005759</v>
       </c>
       <c r="K43" t="n">
-        <v>263.650626613421</v>
+        <v>74.13013247831287</v>
       </c>
       <c r="L43" t="n">
-        <v>573.9814096562982</v>
+        <v>384.4609155211901</v>
       </c>
       <c r="M43" t="n">
-        <v>639.1355834093022</v>
+        <v>724.9032091379427</v>
       </c>
       <c r="N43" t="n">
-        <v>972.8105732534673</v>
+        <v>1058.578198982108</v>
       </c>
       <c r="O43" t="n">
-        <v>1274.512923149084</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P43" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q43" t="n">
         <v>1390.589022978066</v>
@@ -7599,22 +7599,22 @@
         <v>1390.589022978066</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.157037296345</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U43" t="n">
-        <v>873.7729740422894</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7936288631137</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="W43" t="n">
-        <v>324.4632267942913</v>
+        <v>821.8745576551876</v>
       </c>
       <c r="X43" t="n">
-        <v>90.38290457727439</v>
+        <v>821.8745576551876</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.38290457727439</v>
+        <v>821.8745576551876</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="C44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="D44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="E44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="F44" t="n">
-        <v>90.59074053386155</v>
+        <v>381.0896056944559</v>
       </c>
       <c r="G44" t="n">
-        <v>90.59074053386155</v>
+        <v>381.0896056944559</v>
       </c>
       <c r="H44" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I44" t="n">
         <v>27.81178045956132</v>
@@ -7675,25 +7675,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T44" t="n">
-        <v>1390.589022978066</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="U44" t="n">
-        <v>1135.015238203104</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="V44" t="n">
-        <v>792.9084289066221</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="W44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="X44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
       <c r="Y44" t="n">
-        <v>441.7495847202418</v>
+        <v>719.2309965855574</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>643.1278680522563</v>
+        <v>375.3264502327092</v>
       </c>
       <c r="C45" t="n">
-        <v>492.4736376123485</v>
+        <v>224.6722197928015</v>
       </c>
       <c r="D45" t="n">
-        <v>492.4736376123485</v>
+        <v>224.6722197928015</v>
       </c>
       <c r="E45" t="n">
-        <v>356.0271467232362</v>
+        <v>224.6722197928015</v>
       </c>
       <c r="F45" t="n">
-        <v>231.595340606368</v>
+        <v>224.6722197928015</v>
       </c>
       <c r="G45" t="n">
         <v>112.7323214741945</v>
@@ -7727,52 +7727,52 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J45" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K45" t="n">
-        <v>257.1654210667913</v>
+        <v>364.6277975410784</v>
       </c>
       <c r="L45" t="n">
-        <v>422.6920753041434</v>
+        <v>530.1544517784305</v>
       </c>
       <c r="M45" t="n">
-        <v>628.4358377232137</v>
+        <v>735.8982141975008</v>
       </c>
       <c r="N45" t="n">
-        <v>848.9906445190804</v>
+        <v>956.4530209933675</v>
       </c>
       <c r="O45" t="n">
-        <v>1193.161427706152</v>
+        <v>1143.77471345342</v>
       </c>
       <c r="P45" t="n">
-        <v>1330.93710741934</v>
+        <v>1281.550393166609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R45" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S45" t="n">
-        <v>1390.589022978066</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T45" t="n">
-        <v>1390.589022978066</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U45" t="n">
-        <v>1180.6046164196</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="V45" t="n">
-        <v>958.0646147906671</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="W45" t="n">
-        <v>958.0646147906671</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="X45" t="n">
-        <v>794.9242024932176</v>
+        <v>706.4370015981633</v>
       </c>
       <c r="Y45" t="n">
-        <v>794.9242024932176</v>
+        <v>527.1227846736706</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>601.8669949196362</v>
+        <v>329.9283974798343</v>
       </c>
       <c r="C46" t="n">
-        <v>601.8669949196362</v>
+        <v>329.9283974798343</v>
       </c>
       <c r="D46" t="n">
-        <v>601.8669949196362</v>
+        <v>329.9283974798343</v>
       </c>
       <c r="E46" t="n">
-        <v>601.8669949196362</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="F46" t="n">
-        <v>444.5410601326092</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="G46" t="n">
-        <v>277.2903621395122</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I46" t="n">
         <v>27.81178045956132</v>
@@ -7809,49 +7809,49 @@
         <v>27.81178045956132</v>
       </c>
       <c r="K46" t="n">
-        <v>223.898758080498</v>
+        <v>74.13013247831287</v>
       </c>
       <c r="L46" t="n">
-        <v>534.2295411233753</v>
+        <v>384.4609155211901</v>
       </c>
       <c r="M46" t="n">
-        <v>874.6718347401278</v>
+        <v>724.9032091379427</v>
       </c>
       <c r="N46" t="n">
-        <v>972.8105732534673</v>
+        <v>1058.578198982108</v>
       </c>
       <c r="O46" t="n">
-        <v>1274.512923149084</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P46" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q46" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R46" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S46" t="n">
-        <v>1126.472237001195</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.05937832001</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="U46" t="n">
-        <v>1059.05937832001</v>
+        <v>688.4426472666196</v>
       </c>
       <c r="V46" t="n">
-        <v>1059.05937832001</v>
+        <v>613.2587995486567</v>
       </c>
       <c r="W46" t="n">
-        <v>1059.05937832001</v>
+        <v>329.9283974798343</v>
       </c>
       <c r="X46" t="n">
-        <v>824.9790561029929</v>
+        <v>329.9283974798343</v>
       </c>
       <c r="Y46" t="n">
-        <v>601.8669949196362</v>
+        <v>329.9283974798343</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.027671010420733</v>
+        <v>1.027671010420761</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5149686549154922</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.4799024988713</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>62.17842597500319</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>21.1282349534067</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.31913390494036</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>225.8001652786827</v>
+        <v>33.70159109505241</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.027671010420733</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>62.17842597500321</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.29285602274928</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>278.4750710187352</v>
+        <v>224.3519380806689</v>
       </c>
       <c r="N16" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>105.7604526049819</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.30104968682723</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.027671010420733</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>208.9948711537874</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>12.29285602274931</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.31913390494036</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>83.40996126898375</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>254.3449995307766</v>
+        <v>229.4304324677197</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>180.4486151007264</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>28.54625605306006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>62.17842597500314</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>15.23883549545085</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.53988518227762</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>274.8562959112435</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>213.8227508018402</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>123.398383053217</v>
       </c>
       <c r="R23" t="n">
-        <v>1.027671010420704</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>223.1369038201625</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>131.6355121191476</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>224.8883270446486</v>
+        <v>224.8883270446489</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9956,19 +9956,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>197.1068957356291</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>303.8650070002045</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>248.2810145168562</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>252.6908882189771</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>123.3983830532169</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>55.97771729220065</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10193,7 +10193,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>218.9611782897379</v>
+        <v>173.251333867909</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>331.8962943983493</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>224.8883270446486</v>
+        <v>224.8883270446489</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>50.50252833451485</v>
       </c>
       <c r="K33" t="n">
-        <v>88.10353212268232</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>281.8498168762645</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>28.5462560530604</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>180.4486151007265</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>258.8804411060411</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>228.5459673417679</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>250.8147018925933</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>62.17842597500363</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>208.9948711537871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.53988518227808</v>
+        <v>87.96528468973453</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>12.29285602274908</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>27.55796940039112</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4062630755548469</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>100.4470161292545</v>
+        <v>12.29285602274915</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>158.4334249767865</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>12.31913390494034</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>15.23883549545078</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
@@ -11466,7 +11466,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>30.12023289268798</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
         <v>254.3449995307766</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>204.6689228027278</v>
       </c>
       <c r="C11" t="n">
-        <v>41.59649073758231</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>50.91043389010451</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080563</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067556</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I11" t="n">
-        <v>43.53734412277573</v>
+        <v>51.58147895005206</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.5718775168518</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>37.91082327175735</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.87854624408851</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.099864593737095</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>37.16771886569737</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.93593856968744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.1176658249033</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.2846333968002</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.96323119696135</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23503,10 +23503,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F14" t="n">
-        <v>65.07823834080563</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>406.8166861751919</v>
@@ -23515,7 +23515,7 @@
         <v>298.1635680324936</v>
       </c>
       <c r="I14" t="n">
-        <v>51.58147895005204</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5718775168518</v>
+        <v>10.78948752429667</v>
       </c>
       <c r="U14" t="n">
         <v>253.0180469272126</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.119827280626</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>37.91082327175735</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>44.8785462440884</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>7.260650971784372</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>210.9275452496642</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23670,10 +23670,10 @@
         <v>165.5781910131661</v>
       </c>
       <c r="H16" t="n">
-        <v>72.28823553082158</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>166.2879121513078</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>327.0925760085415</v>
+        <v>41.59649073758214</v>
       </c>
       <c r="D17" t="n">
-        <v>33.93946175098245</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>59.16943043067545</v>
+        <v>162.9865663153849</v>
       </c>
       <c r="H17" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I17" t="n">
-        <v>51.58147895005204</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.5718775168518</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>115.7049822678532</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I18" t="n">
-        <v>8.099864593737081</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T18" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>95.34283641677062</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>87.4626986767494</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>77.90790838083909</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T19" t="n">
         <v>229.1176658249033</v>
@@ -23952,7 +23952,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>83.03604362232858</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>157.2531264710429</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>65.07823834080563</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>59.16943043067556</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I20" t="n">
         <v>51.58147895005203</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T20" t="n">
         <v>211.5718775168518</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>37.91082327175724</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>44.8785462440884</v>
       </c>
     </row>
     <row r="21">
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>32.78809192693573</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.4382740666146</v>
+        <v>22.75417273906001</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>136.9683734110383</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T22" t="n">
         <v>229.1176658249033</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>48.04553524210573</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>155.5299187579858</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I23" t="n">
         <v>51.58147895005203</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T23" t="n">
         <v>211.5718775168518</v>
@@ -24265,16 +24265,16 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V23" t="n">
-        <v>82.79614274027278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.78587351132194</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I24" t="n">
         <v>8.099864593737074</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>32.55402043320854</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>9.021676020871411</v>
       </c>
       <c r="E25" t="n">
-        <v>6.098932958731524</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24414,16 +24414,16 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24454,16 +24454,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>341.7709012259854</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V26" t="n">
-        <v>156.7903735443322</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>58.70188546615132</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>8.099864593737074</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>91.117854404589</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>93.53051092028464</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>189.2868313254847</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>411.602669007391</v>
+        <v>38.59353634712022</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>51.58147895005203</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.76844040482385</v>
+        <v>1.080721238551547</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>75.9714710107498</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>72.1496400990804</v>
       </c>
       <c r="F31" t="n">
-        <v>72.4526626706416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.0922268306807</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>208.8754246254342</v>
+        <v>276.3899142208918</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>46.75461623467801</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>35.28837683148249</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>150.1482347082695</v>
       </c>
       <c r="H34" t="n">
         <v>145.0922268306807</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>30.80300268640349</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976636</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>33.93946175098245</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>50.9104338901044</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080546</v>
       </c>
       <c r="G35" t="n">
-        <v>59.16943043067545</v>
+        <v>59.16943043067539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>106.3426925809383</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.5718775168518</v>
@@ -25213,7 +25213,7 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>198.4463447020134</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>71.47286596832302</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H36" t="n">
         <v>75.9714710107498</v>
       </c>
       <c r="I36" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.96368858497192</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>120.4785411299159</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25377,7 +25377,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>218.242558612552</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25399,19 +25399,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>50.9104338901044</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067533</v>
       </c>
       <c r="H38" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>62.37096647434856</v>
       </c>
       <c r="U38" t="n">
         <v>253.0180469272126</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>30.4312764611758</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>44.87854624408828</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>128.2747535495821</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>128.4057546256053</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>108.5694049316341</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5781910131661</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S40" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.57081032244452</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>286.9508921525805</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H41" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I41" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0180469272126</v>
+        <v>103.8171358847098</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>19.64178893687892</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>37.91082327175724</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.8785462440884</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>38.39923084317581</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>218.0175353793</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>106.5576538781347</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5781910131661</v>
+        <v>90.27251887770409</v>
       </c>
       <c r="H43" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>183.4770235079133</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25876,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>65.07823834080551</v>
+        <v>77.96551710313156</v>
       </c>
       <c r="G44" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H44" t="n">
-        <v>236.0123975589364</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>19.64178893687892</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25952,13 +25952,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.853889605430879</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>25.90499869901356</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26031,19 +26031,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>162.3789357305303</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>188.8875424866008</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>380730.0207626395</v>
+        <v>380730.0207626396</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482799.0620520375</v>
+        <v>482799.0620520372</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482799.0620520372</v>
+        <v>482799.0620520373</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>380730.0207626395</v>
+        <v>380730.0207626396</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>380730.0207626395</v>
+        <v>380730.0207626396</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380730.0207626395</v>
+        <v>380730.0207626394</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>557687.5860756227</v>
       </c>
       <c r="D2" t="n">
-        <v>557687.5860756228</v>
+        <v>557687.5860756226</v>
       </c>
       <c r="E2" t="n">
-        <v>287923.1171194546</v>
+        <v>287923.1171194547</v>
       </c>
       <c r="F2" t="n">
-        <v>287923.1171194546</v>
+        <v>287923.1171194545</v>
       </c>
       <c r="G2" t="n">
         <v>287923.1171194546</v>
       </c>
       <c r="H2" t="n">
-        <v>287923.1171194547</v>
+        <v>287923.1171194545</v>
       </c>
       <c r="I2" t="n">
         <v>342116.7999757419</v>
       </c>
       <c r="J2" t="n">
-        <v>342116.7999757418</v>
+        <v>342116.799975742</v>
       </c>
       <c r="K2" t="n">
-        <v>342116.7999757418</v>
+        <v>342116.7999757419</v>
       </c>
       <c r="L2" t="n">
         <v>342116.7999757419</v>
       </c>
       <c r="M2" t="n">
+        <v>287923.1171194547</v>
+      </c>
+      <c r="N2" t="n">
         <v>287923.1171194546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287923.1171194547</v>
       </c>
       <c r="O2" t="n">
         <v>287923.1171194545</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>546348.2535450243</v>
+        <v>546348.2535450241</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.704436726868153e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>32819.01035030109</v>
+        <v>32819.01035030108</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55879.22819363891</v>
+        <v>55879.22819363894</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>396329.2500935792</v>
       </c>
       <c r="E4" t="n">
-        <v>18805.62658594713</v>
+        <v>18805.62658594714</v>
       </c>
       <c r="F4" t="n">
         <v>18805.62658594714</v>
       </c>
       <c r="G4" t="n">
-        <v>18805.62658594715</v>
+        <v>18805.62658594714</v>
       </c>
       <c r="H4" t="n">
-        <v>18805.62658594712</v>
+        <v>18805.62658594714</v>
       </c>
       <c r="I4" t="n">
         <v>52802.53918672969</v>
       </c>
       <c r="J4" t="n">
-        <v>52802.53918672967</v>
+        <v>52802.53918672969</v>
       </c>
       <c r="K4" t="n">
-        <v>52802.53918672968</v>
+        <v>52802.53918672969</v>
       </c>
       <c r="L4" t="n">
-        <v>52802.53918672967</v>
+        <v>52802.53918672969</v>
       </c>
       <c r="M4" t="n">
-        <v>18805.62658594714</v>
+        <v>18805.62658594715</v>
       </c>
       <c r="N4" t="n">
-        <v>18805.62658594714</v>
+        <v>18805.62658594715</v>
       </c>
       <c r="O4" t="n">
-        <v>18805.62658594714</v>
+        <v>18805.62658594713</v>
       </c>
       <c r="P4" t="n">
         <v>18805.62658594714</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33145.31732089848</v>
+        <v>33145.31732089847</v>
       </c>
       <c r="F5" t="n">
-        <v>33145.31732089848</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="G5" t="n">
-        <v>33145.31732089848</v>
+        <v>33145.3173208985</v>
       </c>
       <c r="H5" t="n">
-        <v>33145.31732089848</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="I5" t="n">
         <v>40649.03394838674</v>
@@ -26502,10 +26502,10 @@
         <v>40649.03394838674</v>
       </c>
       <c r="M5" t="n">
-        <v>33145.31732089849</v>
+        <v>33145.3173208985</v>
       </c>
       <c r="N5" t="n">
-        <v>33145.31732089849</v>
+        <v>33145.3173208985</v>
       </c>
       <c r="O5" t="n">
         <v>33145.31732089849</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127730.7359820436</v>
+        <v>127726.4064142572</v>
       </c>
       <c r="C6" t="n">
-        <v>127730.7359820435</v>
+        <v>127726.4064142571</v>
       </c>
       <c r="D6" t="n">
-        <v>127730.7359820436</v>
+        <v>127726.406414257</v>
       </c>
       <c r="E6" t="n">
-        <v>-310376.0803324153</v>
+        <v>-311250.6178645761</v>
       </c>
       <c r="F6" t="n">
-        <v>235972.173212609</v>
+        <v>235097.6356804476</v>
       </c>
       <c r="G6" t="n">
-        <v>235972.173212609</v>
+        <v>235097.6356804479</v>
       </c>
       <c r="H6" t="n">
-        <v>235972.1732126091</v>
+        <v>235097.6356804478</v>
       </c>
       <c r="I6" t="n">
-        <v>215846.2164903244</v>
+        <v>215146.4972899577</v>
       </c>
       <c r="J6" t="n">
-        <v>248665.2268406255</v>
+        <v>247965.5076402589</v>
       </c>
       <c r="K6" t="n">
-        <v>248665.2268406254</v>
+        <v>247965.5076402588</v>
       </c>
       <c r="L6" t="n">
-        <v>248665.2268406255</v>
+        <v>247965.5076402588</v>
       </c>
       <c r="M6" t="n">
-        <v>180092.9450189701</v>
+        <v>179218.407486809</v>
       </c>
       <c r="N6" t="n">
-        <v>235972.1732126091</v>
+        <v>235097.6356804478</v>
       </c>
       <c r="O6" t="n">
-        <v>235972.1732126089</v>
+        <v>235097.6356804478</v>
       </c>
       <c r="P6" t="n">
-        <v>235972.173212609</v>
+        <v>235097.6356804479</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.842393194123</v>
+        <v>550.8423931941229</v>
       </c>
       <c r="F3" t="n">
-        <v>550.842393194123</v>
+        <v>550.8423931941231</v>
       </c>
       <c r="G3" t="n">
-        <v>550.842393194123</v>
+        <v>550.8423931941231</v>
       </c>
       <c r="H3" t="n">
         <v>550.8423931941231</v>
@@ -26801,13 +26801,13 @@
         <v>347.6472557445164</v>
       </c>
       <c r="F4" t="n">
-        <v>347.6472557445164</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G4" t="n">
         <v>347.6472557445165</v>
       </c>
       <c r="H4" t="n">
-        <v>347.6472557445164</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="I4" t="n">
         <v>471.0636476439944</v>
@@ -26825,7 +26825,7 @@
         <v>347.6472557445165</v>
       </c>
       <c r="N4" t="n">
-        <v>347.6472557445165</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="O4" t="n">
         <v>347.6472557445165</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.842393194123</v>
+        <v>550.8423931941229</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156300219329812e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>347.6472557445165</v>
+        <v>347.6472557445163</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2308638450382</v>
+        <v>224.2308638450384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6472557445165</v>
+        <v>347.6472557445163</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.214441781684915</v>
+        <v>2.214441781684914</v>
       </c>
       <c r="H11" t="n">
         <v>22.67865189668064</v>
       </c>
       <c r="I11" t="n">
-        <v>85.37226678840777</v>
+        <v>85.37226678840776</v>
       </c>
       <c r="J11" t="n">
         <v>187.9479781682802</v>
       </c>
       <c r="K11" t="n">
-        <v>281.6852987870028</v>
+        <v>281.6852987870027</v>
       </c>
       <c r="L11" t="n">
         <v>349.4555214632425</v>
       </c>
       <c r="M11" t="n">
-        <v>388.8366004982816</v>
+        <v>388.8366004982815</v>
       </c>
       <c r="N11" t="n">
-        <v>395.1283832104939</v>
+        <v>395.1283832104938</v>
       </c>
       <c r="O11" t="n">
-        <v>373.1085277438645</v>
+        <v>373.1085277438644</v>
       </c>
       <c r="P11" t="n">
-        <v>318.4394962585181</v>
+        <v>318.439496258518</v>
       </c>
       <c r="Q11" t="n">
         <v>239.134799951927</v>
       </c>
       <c r="R11" t="n">
-        <v>139.1029285687652</v>
+        <v>139.1029285687651</v>
       </c>
       <c r="S11" t="n">
-        <v>50.46159210014505</v>
+        <v>50.46159210014504</v>
       </c>
       <c r="T11" t="n">
-        <v>9.69371889932572</v>
+        <v>9.693718899325718</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1771553425347932</v>
+        <v>0.1771553425347931</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>11.44297122465527</v>
       </c>
       <c r="I12" t="n">
-        <v>40.79351685447044</v>
+        <v>40.79351685447043</v>
       </c>
       <c r="J12" t="n">
         <v>111.9405282244774</v>
       </c>
       <c r="K12" t="n">
-        <v>191.3241923606418</v>
+        <v>191.3241923606417</v>
       </c>
       <c r="L12" t="n">
         <v>257.2589875007081</v>
@@ -31852,10 +31852,10 @@
         <v>300.209104290797</v>
       </c>
       <c r="N12" t="n">
-        <v>308.1547459813048</v>
+        <v>308.1547459813047</v>
       </c>
       <c r="O12" t="n">
-        <v>281.9013896566188</v>
+        <v>281.9013896566187</v>
       </c>
       <c r="P12" t="n">
         <v>226.2507180649597</v>
@@ -31864,16 +31864,16 @@
         <v>151.242613316243</v>
       </c>
       <c r="R12" t="n">
-        <v>73.56344262316989</v>
+        <v>73.56344262316988</v>
       </c>
       <c r="S12" t="n">
-        <v>22.00771259601047</v>
+        <v>22.00771259601046</v>
       </c>
       <c r="T12" t="n">
-        <v>4.775699616466027</v>
+        <v>4.775699616466026</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07794939526331933</v>
+        <v>0.07794939526331932</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9933223483828447</v>
+        <v>0.9933223483828445</v>
       </c>
       <c r="H13" t="n">
-        <v>8.831538697440207</v>
+        <v>8.831538697440205</v>
       </c>
       <c r="I13" t="n">
         <v>29.87191207682228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.22789003066711</v>
+        <v>70.2278900306671</v>
       </c>
       <c r="K13" t="n">
         <v>115.4059964757523</v>
@@ -31937,10 +31937,10 @@
         <v>140.4015988423316</v>
       </c>
       <c r="P13" t="n">
-        <v>120.1378229353215</v>
+        <v>120.1378229353214</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.17720137231257</v>
+        <v>83.17720137231255</v>
       </c>
       <c r="R13" t="n">
         <v>44.66338486455953</v>
@@ -31952,7 +31952,7 @@
         <v>4.24419548854488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05418121900270068</v>
+        <v>0.05418121900270067</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>22.67865189668064</v>
       </c>
       <c r="I14" t="n">
-        <v>85.37226678840777</v>
+        <v>85.37226678840779</v>
       </c>
       <c r="J14" t="n">
-        <v>187.9479781682802</v>
+        <v>187.9479781682803</v>
       </c>
       <c r="K14" t="n">
         <v>281.6852987870028</v>
       </c>
       <c r="L14" t="n">
-        <v>349.4555214632425</v>
+        <v>349.4555214632426</v>
       </c>
       <c r="M14" t="n">
-        <v>388.8366004982816</v>
+        <v>388.8366004982817</v>
       </c>
       <c r="N14" t="n">
-        <v>395.1283832104939</v>
+        <v>395.128383210494</v>
       </c>
       <c r="O14" t="n">
-        <v>373.1085277438645</v>
+        <v>373.1085277438646</v>
       </c>
       <c r="P14" t="n">
-        <v>318.4394962585181</v>
+        <v>318.4394962585182</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.134799951927</v>
+        <v>239.1347999519271</v>
       </c>
       <c r="R14" t="n">
         <v>139.1029285687652</v>
       </c>
       <c r="S14" t="n">
-        <v>50.46159210014505</v>
+        <v>50.46159210014506</v>
       </c>
       <c r="T14" t="n">
-        <v>9.69371889932572</v>
+        <v>9.693718899325722</v>
       </c>
       <c r="U14" t="n">
         <v>0.1771553425347932</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.184830808002453</v>
+        <v>1.184830808002454</v>
       </c>
       <c r="H15" t="n">
-        <v>11.44297122465527</v>
+        <v>11.44297122465528</v>
       </c>
       <c r="I15" t="n">
-        <v>40.79351685447044</v>
+        <v>40.79351685447045</v>
       </c>
       <c r="J15" t="n">
         <v>111.9405282244774</v>
@@ -32083,10 +32083,10 @@
         <v>191.3241923606418</v>
       </c>
       <c r="L15" t="n">
-        <v>257.2589875007081</v>
+        <v>257.2589875007082</v>
       </c>
       <c r="M15" t="n">
-        <v>300.209104290797</v>
+        <v>300.2091042907971</v>
       </c>
       <c r="N15" t="n">
         <v>308.1547459813048</v>
@@ -32095,22 +32095,22 @@
         <v>281.9013896566188</v>
       </c>
       <c r="P15" t="n">
-        <v>226.2507180649597</v>
+        <v>226.2507180649598</v>
       </c>
       <c r="Q15" t="n">
         <v>151.242613316243</v>
       </c>
       <c r="R15" t="n">
-        <v>73.56344262316989</v>
+        <v>73.56344262316991</v>
       </c>
       <c r="S15" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T15" t="n">
-        <v>4.775699616466027</v>
+        <v>4.775699616466028</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07794939526331933</v>
+        <v>0.07794939526331934</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9933223483828447</v>
+        <v>0.9933223483828448</v>
       </c>
       <c r="H16" t="n">
-        <v>8.831538697440207</v>
+        <v>8.831538697440209</v>
       </c>
       <c r="I16" t="n">
-        <v>29.87191207682228</v>
+        <v>29.87191207682229</v>
       </c>
       <c r="J16" t="n">
-        <v>70.22789003066711</v>
+        <v>70.22789003066713</v>
       </c>
       <c r="K16" t="n">
         <v>115.4059964757523</v>
@@ -32165,7 +32165,7 @@
         <v>147.6799425950277</v>
       </c>
       <c r="M16" t="n">
-        <v>155.7077932105944</v>
+        <v>155.7077932105945</v>
       </c>
       <c r="N16" t="n">
         <v>152.0054099120767</v>
@@ -32177,19 +32177,19 @@
         <v>120.1378229353215</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.17720137231257</v>
+        <v>83.1772013723126</v>
       </c>
       <c r="R16" t="n">
-        <v>44.66338486455953</v>
+        <v>44.66338486455954</v>
       </c>
       <c r="S16" t="n">
         <v>17.31089947136284</v>
       </c>
       <c r="T16" t="n">
-        <v>4.24419548854488</v>
+        <v>4.244195488544881</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05418121900270068</v>
+        <v>0.05418121900270069</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>22.67865189668064</v>
       </c>
       <c r="I17" t="n">
-        <v>85.37226678840777</v>
+        <v>85.37226678840779</v>
       </c>
       <c r="J17" t="n">
-        <v>187.9479781682802</v>
+        <v>187.9479781682803</v>
       </c>
       <c r="K17" t="n">
         <v>281.6852987870028</v>
       </c>
       <c r="L17" t="n">
-        <v>349.4555214632425</v>
+        <v>349.4555214632426</v>
       </c>
       <c r="M17" t="n">
-        <v>388.8366004982816</v>
+        <v>388.8366004982817</v>
       </c>
       <c r="N17" t="n">
-        <v>395.1283832104939</v>
+        <v>395.128383210494</v>
       </c>
       <c r="O17" t="n">
-        <v>373.1085277438645</v>
+        <v>373.1085277438646</v>
       </c>
       <c r="P17" t="n">
-        <v>318.4394962585181</v>
+        <v>318.4394962585182</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.134799951927</v>
+        <v>239.1347999519271</v>
       </c>
       <c r="R17" t="n">
         <v>139.1029285687652</v>
       </c>
       <c r="S17" t="n">
-        <v>50.46159210014505</v>
+        <v>50.46159210014506</v>
       </c>
       <c r="T17" t="n">
-        <v>9.69371889932572</v>
+        <v>9.693718899325722</v>
       </c>
       <c r="U17" t="n">
         <v>0.1771553425347932</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.184830808002453</v>
+        <v>1.184830808002454</v>
       </c>
       <c r="H18" t="n">
-        <v>11.44297122465527</v>
+        <v>11.44297122465528</v>
       </c>
       <c r="I18" t="n">
-        <v>40.79351685447044</v>
+        <v>40.79351685447045</v>
       </c>
       <c r="J18" t="n">
         <v>111.9405282244774</v>
@@ -32320,10 +32320,10 @@
         <v>191.3241923606418</v>
       </c>
       <c r="L18" t="n">
-        <v>257.2589875007081</v>
+        <v>257.2589875007082</v>
       </c>
       <c r="M18" t="n">
-        <v>300.209104290797</v>
+        <v>300.2091042907971</v>
       </c>
       <c r="N18" t="n">
         <v>308.1547459813048</v>
@@ -32332,22 +32332,22 @@
         <v>281.9013896566188</v>
       </c>
       <c r="P18" t="n">
-        <v>226.2507180649597</v>
+        <v>226.2507180649598</v>
       </c>
       <c r="Q18" t="n">
         <v>151.242613316243</v>
       </c>
       <c r="R18" t="n">
-        <v>73.56344262316989</v>
+        <v>73.56344262316991</v>
       </c>
       <c r="S18" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T18" t="n">
-        <v>4.775699616466027</v>
+        <v>4.775699616466028</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07794939526331933</v>
+        <v>0.07794939526331934</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9933223483828447</v>
+        <v>0.9933223483828448</v>
       </c>
       <c r="H19" t="n">
-        <v>8.831538697440207</v>
+        <v>8.831538697440209</v>
       </c>
       <c r="I19" t="n">
-        <v>29.87191207682228</v>
+        <v>29.87191207682229</v>
       </c>
       <c r="J19" t="n">
-        <v>70.22789003066711</v>
+        <v>70.22789003066713</v>
       </c>
       <c r="K19" t="n">
         <v>115.4059964757523</v>
@@ -32402,7 +32402,7 @@
         <v>147.6799425950277</v>
       </c>
       <c r="M19" t="n">
-        <v>155.7077932105944</v>
+        <v>155.7077932105945</v>
       </c>
       <c r="N19" t="n">
         <v>152.0054099120767</v>
@@ -32414,19 +32414,19 @@
         <v>120.1378229353215</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.17720137231257</v>
+        <v>83.1772013723126</v>
       </c>
       <c r="R19" t="n">
-        <v>44.66338486455953</v>
+        <v>44.66338486455954</v>
       </c>
       <c r="S19" t="n">
         <v>17.31089947136284</v>
       </c>
       <c r="T19" t="n">
-        <v>4.24419548854488</v>
+        <v>4.244195488544881</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05418121900270068</v>
+        <v>0.05418121900270069</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>318.4394962585182</v>
       </c>
       <c r="Q41" t="n">
-        <v>239.1347999519267</v>
+        <v>239.1347999519271</v>
       </c>
       <c r="R41" t="n">
         <v>139.1029285687652</v>
@@ -34389,7 +34389,7 @@
         <v>318.4394962585182</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.1347999519271</v>
+        <v>239.1347999519267</v>
       </c>
       <c r="R44" t="n">
         <v>139.1029285687652</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>70.26814022593413</v>
+        <v>70.26814022593408</v>
       </c>
       <c r="K11" t="n">
-        <v>138.6268956077654</v>
+        <v>138.6268956077653</v>
       </c>
       <c r="L11" t="n">
         <v>196.2073517327508</v>
@@ -35421,16 +35421,16 @@
         <v>239.1115489005543</v>
       </c>
       <c r="N11" t="n">
-        <v>246.0098918727098</v>
+        <v>246.0098918727097</v>
       </c>
       <c r="O11" t="n">
         <v>223.5446903197681</v>
       </c>
       <c r="P11" t="n">
-        <v>168.1380490175929</v>
+        <v>168.1380490175928</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.63610153353486</v>
+        <v>94.63610153353483</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.49607089114407</v>
+        <v>226.1980860221818</v>
       </c>
       <c r="K12" t="n">
         <v>101.7272570273084</v>
       </c>
       <c r="L12" t="n">
-        <v>167.7136092987054</v>
+        <v>167.1986406437899</v>
       </c>
       <c r="M12" t="n">
-        <v>207.8219822414851</v>
+        <v>207.821982241485</v>
       </c>
       <c r="N12" t="n">
-        <v>222.7826331271381</v>
+        <v>222.782633127138</v>
       </c>
       <c r="O12" t="n">
         <v>189.2138307677299</v>
       </c>
       <c r="P12" t="n">
-        <v>347.6472557445164</v>
+        <v>139.167353245645</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.254460160329</v>
+        <v>122.4328861353322</v>
       </c>
       <c r="R12" t="n">
-        <v>49.88556995225379</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.15340255850803</v>
       </c>
       <c r="K13" t="n">
-        <v>31.5473786649043</v>
+        <v>198.0676541625622</v>
       </c>
       <c r="L13" t="n">
-        <v>60.0049030122228</v>
+        <v>313.4654374170476</v>
       </c>
       <c r="M13" t="n">
         <v>343.8811046633864</v>
       </c>
       <c r="N13" t="n">
-        <v>337.0454442870355</v>
+        <v>69.00980600967509</v>
       </c>
       <c r="O13" t="n">
-        <v>276.2050141273165</v>
+        <v>84.10643994368617</v>
       </c>
       <c r="P13" t="n">
         <v>241.2248590732796</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.63396538246505</v>
+        <v>86.63396538246504</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.26814022593413</v>
+        <v>70.26814022593416</v>
       </c>
       <c r="K14" t="n">
         <v>138.6268956077654</v>
       </c>
       <c r="L14" t="n">
-        <v>196.2073517327508</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M14" t="n">
-        <v>239.1115489005543</v>
+        <v>239.1115489005545</v>
       </c>
       <c r="N14" t="n">
-        <v>246.0098918727098</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O14" t="n">
-        <v>223.5446903197681</v>
+        <v>223.5446903197682</v>
       </c>
       <c r="P14" t="n">
-        <v>168.1380490175929</v>
+        <v>168.138049017593</v>
       </c>
       <c r="Q14" t="n">
-        <v>94.63610153353486</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>226.1980860221818</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K15" t="n">
-        <v>101.7272570273084</v>
+        <v>163.9056830023117</v>
       </c>
       <c r="L15" t="n">
-        <v>167.1986406437899</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M15" t="n">
-        <v>207.8219822414851</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N15" t="n">
-        <v>222.7826331271381</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2138307677299</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P15" t="n">
-        <v>151.4602092683944</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.254460160329</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R15" t="n">
-        <v>49.88556995225379</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.15340255850804</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K16" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L16" t="n">
-        <v>60.0049030122228</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M16" t="n">
-        <v>343.8811046633864</v>
+        <v>289.7579717253201</v>
       </c>
       <c r="N16" t="n">
-        <v>337.0454442870355</v>
+        <v>69.00980600967515</v>
       </c>
       <c r="O16" t="n">
-        <v>156.1653014536157</v>
+        <v>304.7498483794105</v>
       </c>
       <c r="P16" t="n">
         <v>241.2248590732796</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>70.26814022593413</v>
+        <v>70.26814022593416</v>
       </c>
       <c r="K17" t="n">
         <v>138.6268956077654</v>
       </c>
       <c r="L17" t="n">
-        <v>196.2073517327508</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M17" t="n">
-        <v>239.1115489005543</v>
+        <v>239.1115489005545</v>
       </c>
       <c r="N17" t="n">
-        <v>246.0098918727098</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O17" t="n">
-        <v>223.5446903197681</v>
+        <v>223.5446903197682</v>
       </c>
       <c r="P17" t="n">
-        <v>168.1380490175929</v>
+        <v>168.138049017593</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.63610153353486</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.49607089114407</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K18" t="n">
-        <v>310.7221281810958</v>
+        <v>101.7272570273085</v>
       </c>
       <c r="L18" t="n">
-        <v>167.1986406437899</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8219822414851</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N18" t="n">
-        <v>222.7826331271381</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O18" t="n">
-        <v>189.2138307677299</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P18" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.254460160329</v>
+        <v>72.54731618307834</v>
       </c>
       <c r="R18" t="n">
-        <v>49.88556995225379</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K19" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L19" t="n">
-        <v>143.4148642812065</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M19" t="n">
-        <v>65.40603364465117</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N19" t="n">
         <v>337.0454442870355</v>
       </c>
       <c r="O19" t="n">
-        <v>304.7498483794104</v>
+        <v>279.8352813163535</v>
       </c>
       <c r="P19" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.63396538246505</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K21" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L21" t="n">
-        <v>347.6472557445164</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M21" t="n">
-        <v>236.3682382945452</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N21" t="n">
         <v>222.7826331271382</v>
       </c>
       <c r="O21" t="n">
-        <v>189.21383076773</v>
+        <v>251.3922567427331</v>
       </c>
       <c r="P21" t="n">
         <v>139.1673532456451</v>
@@ -36223,7 +36223,7 @@
         <v>60.25446016032903</v>
       </c>
       <c r="R21" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,10 +36296,10 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P22" t="n">
-        <v>30.61462030337555</v>
+        <v>45.8534557988264</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.23883549545043</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>70.26814022593416</v>
+        <v>334.0588598943692</v>
       </c>
       <c r="K23" t="n">
         <v>138.6268956077654</v>
       </c>
       <c r="L23" t="n">
-        <v>471.0636476439944</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M23" t="n">
-        <v>452.9342997023947</v>
+        <v>239.1115489005545</v>
       </c>
       <c r="N23" t="n">
         <v>246.0098918727099</v>
@@ -36378,10 +36378,10 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.63610153353491</v>
+        <v>218.0344845867519</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>101.4899439914319</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K24" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L24" t="n">
         <v>167.19864064379</v>
@@ -36451,16 +36451,16 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O24" t="n">
-        <v>412.3507345878925</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P24" t="n">
-        <v>139.1673532456451</v>
+        <v>270.8028653647928</v>
       </c>
       <c r="Q24" t="n">
-        <v>387.9750290282536</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>198.0676541625623</v>
       </c>
       <c r="L25" t="n">
-        <v>313.4654374170473</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M25" t="n">
         <v>343.8811046633864</v>
@@ -36597,7 +36597,7 @@
         <v>334.0588598943692</v>
       </c>
       <c r="K26" t="n">
-        <v>363.5152226524141</v>
+        <v>363.5152226524143</v>
       </c>
       <c r="L26" t="n">
         <v>196.2073517327509</v>
@@ -36676,19 +36676,19 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K27" t="n">
-        <v>101.7272570273085</v>
+        <v>298.8341527629375</v>
       </c>
       <c r="L27" t="n">
-        <v>167.19864064379</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="M27" t="n">
         <v>207.8219822414852</v>
       </c>
       <c r="N27" t="n">
-        <v>471.0636476439944</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O27" t="n">
-        <v>441.9047189867071</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P27" t="n">
         <v>139.1673532456451</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>70.26814022593416</v>
+        <v>334.0588598943692</v>
       </c>
       <c r="K29" t="n">
-        <v>138.6268956077654</v>
+        <v>262.0252786609824</v>
       </c>
       <c r="L29" t="n">
         <v>196.2073517327509</v>
@@ -36843,7 +36843,7 @@
         <v>239.1115489005545</v>
       </c>
       <c r="N29" t="n">
-        <v>301.9876091649106</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O29" t="n">
         <v>223.5446903197682</v>
@@ -36852,7 +36852,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q29" t="n">
-        <v>425.8474869629862</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R29" t="n">
         <v>101.4899439914319</v>
@@ -36913,7 +36913,7 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K30" t="n">
-        <v>320.6884353170464</v>
+        <v>274.9785908952175</v>
       </c>
       <c r="L30" t="n">
         <v>167.19864064379</v>
@@ -36928,13 +36928,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P30" t="n">
-        <v>471.0636476439944</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.25446016032903</v>
+        <v>387.9750290282536</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>334.0588598943692</v>
       </c>
       <c r="K32" t="n">
-        <v>363.5152226524141</v>
+        <v>363.5152226524143</v>
       </c>
       <c r="L32" t="n">
         <v>196.2073517327509</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.49607089114409</v>
+        <v>79.99859922565894</v>
       </c>
       <c r="K33" t="n">
-        <v>189.8307891499908</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L33" t="n">
         <v>167.19864064379</v>
@@ -37162,7 +37162,7 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O33" t="n">
-        <v>471.0636476439944</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P33" t="n">
         <v>139.1673532456451</v>
@@ -37171,7 +37171,7 @@
         <v>387.9750290282536</v>
       </c>
       <c r="R33" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>58.04232694420448</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K36" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L36" t="n">
-        <v>347.6472557445165</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M36" t="n">
         <v>207.8219822414852</v>
@@ -37405,10 +37405,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.25446016032903</v>
+        <v>319.1349012663702</v>
       </c>
       <c r="R36" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K37" t="n">
         <v>31.54737866490433</v>
       </c>
       <c r="L37" t="n">
-        <v>313.4654374170477</v>
+        <v>288.5508703539907</v>
       </c>
       <c r="M37" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N37" t="n">
         <v>337.0454442870355</v>
       </c>
       <c r="O37" t="n">
-        <v>301.2195507412271</v>
+        <v>304.7498483794105</v>
       </c>
       <c r="P37" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K39" t="n">
-        <v>101.7272570273085</v>
+        <v>163.9056830023121</v>
       </c>
       <c r="L39" t="n">
         <v>167.19864064379</v>
@@ -37642,10 +37642,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q39" t="n">
-        <v>269.2493313141161</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R39" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,16 +37712,16 @@
         <v>343.8811046633864</v>
       </c>
       <c r="N40" t="n">
-        <v>337.0454442870355</v>
+        <v>69.00980600967515</v>
       </c>
       <c r="O40" t="n">
         <v>304.7498483794105</v>
       </c>
       <c r="P40" t="n">
-        <v>30.61462030337555</v>
+        <v>241.2248590732796</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.23883549545088</v>
+        <v>72.66423500290733</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q41" t="n">
-        <v>94.63610153353453</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>207.8219822414852</v>
       </c>
       <c r="N42" t="n">
-        <v>235.0754891498872</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O42" t="n">
         <v>189.21383076773</v>
@@ -37879,7 +37879,7 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R42" t="n">
         <v>49.8855699522538</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.15340255850806</v>
+        <v>15.23883549545078</v>
       </c>
       <c r="K43" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L43" t="n">
         <v>313.4654374170477</v>
       </c>
       <c r="M43" t="n">
-        <v>65.81229672020605</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N43" t="n">
         <v>337.0454442870355</v>
@@ -37958,7 +37958,7 @@
         <v>30.61462030337555</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.63610153353491</v>
+        <v>94.63610153353453</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K45" t="n">
-        <v>202.1742731565629</v>
+        <v>114.0201130500576</v>
       </c>
       <c r="L45" t="n">
         <v>167.19864064379</v>
@@ -38110,7 +38110,7 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O45" t="n">
-        <v>347.6472557445165</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P45" t="n">
         <v>139.1673532456451</v>
@@ -38119,7 +38119,7 @@
         <v>60.25446016032903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>198.0676541625623</v>
+        <v>46.78621416035511</v>
       </c>
       <c r="L46" t="n">
         <v>313.4654374170477</v>
@@ -38186,7 +38186,7 @@
         <v>343.8811046633864</v>
       </c>
       <c r="N46" t="n">
-        <v>99.13003890236313</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O46" t="n">
         <v>304.7498483794105</v>
@@ -38195,7 +38195,7 @@
         <v>30.61462030337555</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
